--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3667,6 +3667,804 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88">
+        <v>1519400664</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Boise </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1000 </t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_10:44:24_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1519403232</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manassas </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_11:27:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1519404127</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 997 </t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_11:42:07_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1519404349</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_11:45:49_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1519411962</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coronation_Drive_Office_Park </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_13:52:42_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1519411978</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coronation_Drive_Office_Park </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_13:52:58_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1519412355</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Macquarie_Centre </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_13:59:15_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1519412485</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Macquarie_Centre </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_14:01:25_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1519412536</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Macquarie_Centre </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_14:02:16_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1519412681</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Macquarie_Centre </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 998 </t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_14:04:41_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1519412850</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Macquarie_Centre </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_14:07:30_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1519412851</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Macquarie_Centre </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_14:07:31_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1519412868</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMP_Building </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Feb_23_14:07:48_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1519577983</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMP_Building </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, Shipping, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_11:59:43_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1519585936</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, Inventory Management, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_14:12:16_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1519585988</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D, HR </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_14:13:08_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1519588508</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_14:55:08_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1519588688</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_14:58:08_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1519588701</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_14:58:21_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1519589302</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, Shipping, Inventory Management </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Feb_25_15:08:22_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1519655158</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pacific_Fair </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, Shipping, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_09:25:58_EST_2018</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4465,6 +4465,310 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109">
+        <v>1519661118</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1000 </t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_11:05:18_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1519661136</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1000 </t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_11:05:36_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1519664173</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_11:56:13_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1519664511</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_Hqs </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_12:01:51_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1519664549</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1000 </t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_12:02:29_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1519664962</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10000 </t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_12:09:22_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1519667496</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_12:51:36_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1519667630</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9999 </t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mon_Feb_26_12:53:50_EST_2018</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,7 +401,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -433,13 +433,13 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -471,13 +471,13 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -509,13 +509,13 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -547,13 +547,13 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -585,13 +585,13 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -623,13 +623,13 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -661,13 +661,13 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -699,13 +699,13 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -737,13 +737,13 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -775,13 +775,13 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -813,13 +813,13 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -851,13 +851,13 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -889,13 +889,13 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -927,13 +927,13 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -965,13 +965,13 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1003,13 +1003,13 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1041,13 +1041,13 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1079,13 +1079,13 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1117,13 +1117,13 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1155,13 +1155,13 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1193,13 +1193,13 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1231,13 +1231,13 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1269,13 +1269,13 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1307,13 +1307,13 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1345,13 +1345,13 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1383,13 +1383,13 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1421,13 +1421,13 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1459,13 +1459,13 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1497,13 +1497,13 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1573,13 +1573,13 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1611,13 +1611,13 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1649,13 +1649,13 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1687,13 +1687,13 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1763,13 +1763,13 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1801,13 +1801,13 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1839,13 +1839,13 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1877,13 +1877,13 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1915,13 +1915,13 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1953,13 +1953,13 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1991,13 +1991,13 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2029,13 +2029,13 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2067,13 +2067,13 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2105,13 +2105,13 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2143,13 +2143,13 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -2181,13 +2181,13 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2219,13 +2219,13 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -2257,13 +2257,13 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -2295,13 +2295,13 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -2333,13 +2333,13 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -2371,13 +2371,13 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2409,13 +2409,13 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2447,13 +2447,13 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -2485,13 +2485,13 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2523,2249 +2523,3959 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Gridley_IL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Blue_Earth_MN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Bakersfield_CA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1519319062</v>
+        <v>1519750212</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Foley_MN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Thu_Feb_22_12:04:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1519331385</v>
+        <v>1519750212</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stanley_Plaza </t>
+          <t>Mobile_AL_USA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:29:45_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1519332340</v>
+        <v>1519750212</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stanley_Plaza </t>
+          <t>Columbus_MS_USA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:45:40_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1519332342</v>
+        <v>1519750212</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stanley_Plaza </t>
+          <t>Grand_Prairie_TX_USA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:45:42_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1519332613</v>
+        <v>1519750212</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Atlanta_GA_USA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:50:13_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1519332624</v>
+        <v>1519750212</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Miami_FL_USA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:50:24_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1519332811</v>
+        <v>1519750212</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Ashburn_VA_USA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:53:31_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1519333071</v>
+        <v>1519750212</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Hamburg_Germany</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:57:51_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1519333072</v>
+        <v>1519750212</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Tianjin_China</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:57:52_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1519333073</v>
+        <v>1519750212</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Toulouse_France</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:57:53_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1519333115</v>
+        <v>1519750212</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Queretaro_Mexico</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:58:35_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1519333179</v>
+        <v>1519750212</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Itajuba_Minas_Gerais_Brazil</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_15:59:39_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1519333349</v>
+        <v>1519750212</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Sao_Paulo_Brazil</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:02:29_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1519333350</v>
+        <v>1519750212</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Rio_de_Janeiro_Brazil</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:02:30_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1519333351</v>
+        <v>1519750212</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Brasilia_Brazil</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:02:31_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1519333379</v>
+        <v>1519750212</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Broughton_UK</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 998 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:02:59_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1519333951</v>
+        <v>1519750212</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Bristol_UK</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:12:31_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1519333997</v>
+        <v>1519750212</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Stade_Germany</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:13:17_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1519334257</v>
+        <v>1519750212</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Bremen_Germany</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Packaged Foods </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:17:37_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1519334668</v>
+        <v>1519750212</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Donauworth_Germany</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:24:28_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1519334864</v>
+        <v>1519750212</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Nantes_France</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Packaged Foods </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:27:44_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1519335035</v>
+        <v>1519750212</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Marignane_France</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thu_Feb_22_16:30:35_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1519394856</v>
+        <v>1519750212</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pacific_Fair </t>
+          <t>Madrid_Spain</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_09:07:36_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1519395007</v>
+        <v>1519750212</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pacific_Fair </t>
+          <t>Sevilla_Spain</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_09:10:07_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1519396418</v>
+        <v>1519750212</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Casablanca_Morocco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_09:33:38_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1519396950</v>
+        <v>1519750212</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Blenheim_New_Zealand</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_09:42:30_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1519397656</v>
+        <v>1519750212</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>Brisbane_Australia</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Estate </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_09:54:16_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1519400664</v>
+        <v>1519750212</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boise </t>
+          <t>Riyadh_Saudi_Arabia</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_10:44:24_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1519403232</v>
+        <v>1519750212</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manassas </t>
+          <t>Jubail_Saudi_Arabia</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_11:27:12_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1519404127</v>
+        <v>1519750212</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Campo_Grande_Brazil</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 997 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_11:42:07_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1519404349</v>
+        <v>1519750212</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Belo_Horizonte_Brazil</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_11:45:49_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1519411962</v>
+        <v>1519750212</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Coronation_Drive_Office_Park </t>
+          <t>Porto_Real_Brazil</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_13:52:42_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1519411978</v>
+        <v>1519750212</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Coronation_Drive_Office_Park </t>
+          <t>Mogi_das_Cruzes_Brazil</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_13:52:58_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1519412355</v>
+        <v>1519750212</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Macquarie_Centre </t>
+          <t>Jundiai_Brazil</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_13:59:15_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1519412485</v>
+        <v>1519750212</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Macquarie_Centre </t>
+          <t>Sao_Paulo_Brazil</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_14:01:25_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1519412536</v>
+        <v>1519750212</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Macquarie_Centre </t>
+          <t>Curitiba_Brazil</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_14:02:16_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1519412681</v>
+        <v>1519750212</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Macquarie_Centre </t>
+          <t>Maringa_Brazil</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 998 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_14:04:41_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1519412850</v>
+        <v>1519750212</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Macquarie_Centre </t>
+          <t>Marilia_Brazil</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_14:07:30_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1519412851</v>
+        <v>1519750212</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Macquarie_Centre </t>
+          <t>Bauru_Brazil</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_14:07:31_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1519412868</v>
+        <v>1519750212</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMP_Building </t>
+          <t>San_Cristobal_de_las_Casas_Mexico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fri_Feb_23_14:07:48_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1519577983</v>
+        <v>1519750212</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMP_Building </t>
+          <t>Tabasco_Mexico</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, Shipping, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_11:59:43_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1519585936</v>
+        <v>1519750212</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Coatepec_Mexico</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, Inventory Management, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_14:12:16_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1519585988</v>
+        <v>1519750212</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Poza_Rica_Mexico</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D, HR </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_14:13:08_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1519588508</v>
+        <v>1519750212</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Apizaco_Mexico</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_14:55:08_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1519588688</v>
+        <v>1519750212</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Leon_Mexico</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_14:58:08_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1519588701</v>
+        <v>1519750212</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Santiago_deA_Queretaro_Mexico</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_14:58:21_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1519589302</v>
+        <v>1519750212</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indooroopilly_Shopping_Centre </t>
+          <t>Zinacantepec_Mexico</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, Shipping, Inventory Management </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sun_Feb_25_15:08:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1519655158</v>
+        <v>1519750212</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pacific_Fair </t>
+          <t>Pinotepa_Nacional_Mexico</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, Shipping, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_09:25:58_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1519661118</v>
+        <v>1519750212</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+          <t>Cuernavaca_Mexico</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_11:05:18_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1519661136</v>
+        <v>1519750212</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+          <t>Los_Reyes_Acaquilpan_Mexico</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_11:05:36_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1519664173</v>
+        <v>1519750212</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+          <t>Cuautitlan_Izcalli_Mexico</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_11:56:13_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1519664511</v>
+        <v>1519750212</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_Hqs </t>
+          <t>Tepotzotlan_Mexico</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_12:01:51_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1519664549</v>
+        <v>1519750212</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+          <t>Altamira_Mexico</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_12:02:29_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1519664962</v>
+        <v>1519750212</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+          <t>Apizaco_Mexico</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10000 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_12:09:22_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1519667496</v>
+        <v>1519750212</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
+          <t>Morelia_Mexico</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9999 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mon_Feb_26_12:51:36_EST_2018</t>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1519667630</v>
+        <v>1519750212</v>
       </c>
       <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cuajimalpa_de_Morelos_Mexico</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1519750212</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Toluca_Mexico</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1519750212</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Tocancipa_Colombia</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1519750212</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Manantial_Colombia</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1519750212</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Barranquilla_Colombia</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1519750212</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Bucaramanga_Colombia</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1519750212</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Medellin_Colombia</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1519750212</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Santiago_de_Cali_Colombia</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1519750212</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Bogota_Colombia</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1519750212</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ilocos_Philippines</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1519750212</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Ilagan_Philippines</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1519750212</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>San_Fernando_Philippines</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1519750212</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Meycauayan_Philippines</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1519750212</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Naga_Philippines</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1519750212</v>
+      </c>
+      <c r="B130">
+        <v>7</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tacloban_Philippines</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1519750212</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Mandaue_Philippines</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>1519750212</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Bacolod_Philippines</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>1519750212</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Iloilo_Philippines</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>1519750212</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Tagbilaran_Philippines</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>1519750212</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Misasmis_Oriental_Philippines</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>1519750212</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Davao_Philippines</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>1519750212</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Zamboanga_Philippines</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>1519750212</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Imus_Philippines</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>1519750212</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Santa_Rosa_Philippines</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>1519750212</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Calamba_Philippines</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>1519750212</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Monte_Grande_Argentina</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>1519750212</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Maracaibo_Venezuela</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>1519750212</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Valencia_Venezuela</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>1519750212</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Antimano_Venezuela</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>1519750212</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Barcelona_Venezuela</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>1519750212</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>San_Jose_Costa_Rica</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>1519750212</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Coronado_Costa_Rica</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>1519750212</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Panama_City_Panama</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>1519750212</v>
+      </c>
+      <c r="B149">
         <v>1</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Singapore_300mm_NAND </t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>1519750212</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>1519750212</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>1519750212</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>1519750212</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>1519750212</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>1519750212</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>1519750365</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All locations </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manufacturing </t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Feb_27_11:52:45_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>1519750453</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All locations </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Packaged Foods </t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Feb_27_11:54:13_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>1519752069</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All locations </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverage </t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Feb_27_12:21:09_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>1519752218</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All locations </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Packaged Foods </t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Feb_27_12:23:38_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>1519752677</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All locations </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverage </t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Feb_27_12:31:17_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>1519753183</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stanley_Plaza </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t xml:space="preserve"> 250 </t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9999 </t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 999 </t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mon_Feb_26_12:53:50_EST_2018</t>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Feb_27_12:39:43_EST_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6479,6 +6479,82 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162">
+        <v>1519831270</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maracaibo_Venezuela </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wed_Feb_28_10:21:10_EST_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>1519831399</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campo_Grande_Brazil </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fabrication/Assembly </t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wed_Feb_28_10:23:19_EST_2018</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,7 +401,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -433,13 +433,13 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -471,13 +471,13 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -509,13 +509,13 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -547,13 +547,13 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -585,13 +585,13 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -623,13 +623,13 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -661,13 +661,13 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -699,13 +699,13 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -737,13 +737,13 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -775,13 +775,13 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -813,13 +813,13 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -851,13 +851,13 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -889,13 +889,13 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -927,13 +927,13 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -965,13 +965,13 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1003,13 +1003,13 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1041,13 +1041,13 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1079,13 +1079,13 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1117,13 +1117,13 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1155,13 +1155,13 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1193,13 +1193,13 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1231,13 +1231,13 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1269,13 +1269,13 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1307,13 +1307,13 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1345,13 +1345,13 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1383,13 +1383,13 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1421,13 +1421,13 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1459,13 +1459,13 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1497,13 +1497,13 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1573,13 +1573,13 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1611,13 +1611,13 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1649,13 +1649,13 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1687,13 +1687,13 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1763,13 +1763,13 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1801,13 +1801,13 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1839,13 +1839,13 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1877,13 +1877,13 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1915,13 +1915,13 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1953,13 +1953,13 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1991,13 +1991,13 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2029,13 +2029,13 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2067,13 +2067,13 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2105,20 +2105,20 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Indooroopilly_Shopping_Centre</t>
+          <t>SUP_Celestica_Malaysia</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2143,20 +2143,20 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pacific_Fair</t>
+          <t>SUP_Flex_Brazil</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2181,20 +2181,20 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Stanley_Plaza</t>
+          <t>SUP_Flex_Malaysia</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2219,20 +2219,20 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Coronation_Drive_Office_Park</t>
+          <t>SUP_Jabil_Circuit_NL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2257,20 +2257,20 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Macquarie_Centre</t>
+          <t>SUP_Venture_Malaysia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2295,20 +2295,20 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AMP_Building</t>
+          <t>Indooroopilly_Shopping_Centre</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2333,20 +2333,20 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NAB_Headquarters</t>
+          <t>Pacific_Fair</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2371,20 +2371,20 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Malvern_Central</t>
+          <t>Stanley_Plaza</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2409,20 +2409,20 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Exchange_Tower</t>
+          <t>Coronation_Drive_Office_Park</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2447,20 +2447,20 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Garden_City</t>
+          <t>Macquarie_Centre</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2485,20 +2485,20 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>The_Palms_NZ</t>
+          <t>AMP_Building</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2523,20 +2523,20 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gridley_IL</t>
+          <t>NAB_Headquarters</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2561,20 +2561,20 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Blue_Earth_MN</t>
+          <t>Malvern_Central</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2599,20 +2599,20 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bakersfield_CA</t>
+          <t>Exchange_Tower</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2637,20 +2637,20 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Foley_MN</t>
+          <t>Garden_City</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2675,20 +2675,20 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mobile_AL_USA</t>
+          <t>The_Palms_NZ</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2713,20 +2713,20 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Columbus_MS_USA</t>
+          <t>Gridley_IL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2751,20 +2751,20 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Grand_Prairie_TX_USA</t>
+          <t>Blue_Earth_MN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2789,20 +2789,20 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Atlanta_GA_USA</t>
+          <t>Bakersfield_CA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2827,20 +2827,20 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Miami_FL_USA</t>
+          <t>Foley_MN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2865,20 +2865,20 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ashburn_VA_USA</t>
+          <t>Mobile_AL_USA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2903,20 +2903,20 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hamburg_Germany</t>
+          <t>Columbus_MS_USA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2941,20 +2941,20 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tianjin_China</t>
+          <t>Grand_Prairie_TX_USA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2979,20 +2979,20 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Toulouse_France</t>
+          <t>Atlanta_GA_USA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3017,20 +3017,20 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Queretaro_Mexico</t>
+          <t>Miami_FL_USA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3055,20 +3055,20 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Itajuba_Minas_Gerais_Brazil</t>
+          <t>Ashburn_VA_USA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3093,20 +3093,20 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sao_Paulo_Brazil</t>
+          <t>Hamburg_Germany</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3131,20 +3131,20 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rio_de_Janeiro_Brazil</t>
+          <t>Tianjin_China</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3169,20 +3169,20 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Brasilia_Brazil</t>
+          <t>Toulouse_France</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3207,20 +3207,20 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Broughton_UK</t>
+          <t>Queretaro_Mexico</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3245,20 +3245,20 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bristol_UK</t>
+          <t>Itajuba_Minas_Gerais_Brazil</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3283,20 +3283,20 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Stade_Germany</t>
+          <t>Sao_Paulo_Brazil</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3321,20 +3321,20 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bremen_Germany</t>
+          <t>Rio_de_Janeiro_Brazil</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3359,20 +3359,20 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Donauworth_Germany</t>
+          <t>Brasilia_Brazil</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3397,20 +3397,20 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nantes_France</t>
+          <t>Broughton_UK</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3435,20 +3435,20 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Marignane_France</t>
+          <t>Bristol_UK</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3473,20 +3473,20 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Madrid_Spain</t>
+          <t>Stade_Germany</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3511,20 +3511,20 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sevilla_Spain</t>
+          <t>Bremen_Germany</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3549,20 +3549,20 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Casablanca_Morocco</t>
+          <t>Donauworth_Germany</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3587,20 +3587,20 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Blenheim_New_Zealand</t>
+          <t>Nantes_France</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3625,20 +3625,20 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brisbane_Australia</t>
+          <t>Marignane_France</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3663,20 +3663,20 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Riyadh_Saudi_Arabia</t>
+          <t>Madrid_Spain</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3701,20 +3701,20 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Jubail_Saudi_Arabia</t>
+          <t>Sevilla_Spain</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3739,20 +3739,20 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Campo_Grande_Brazil</t>
+          <t>Casablanca_Morocco</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3777,20 +3777,20 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Belo_Horizonte_Brazil</t>
+          <t>Blenheim_New_Zealand</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3815,20 +3815,20 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Porto_Real_Brazil</t>
+          <t>Brisbane_Australia</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3853,20 +3853,20 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mogi_das_Cruzes_Brazil</t>
+          <t>Riyadh_Saudi_Arabia</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3891,20 +3891,20 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jundiai_Brazil</t>
+          <t>Jubail_Saudi_Arabia</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3929,20 +3929,20 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sao_Paulo_Brazil</t>
+          <t>Campo_Grande_Brazil</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3967,20 +3967,20 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B96">
         <v>7</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Curitiba_Brazil</t>
+          <t>Belo_Horizonte_Brazil</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4005,20 +4005,20 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B97">
         <v>7</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Maringa_Brazil</t>
+          <t>Porto_Real_Brazil</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4043,20 +4043,20 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Marilia_Brazil</t>
+          <t>Mogi_das_Cruzes_Brazil</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4081,20 +4081,20 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B99">
         <v>7</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Bauru_Brazil</t>
+          <t>Jundiai_Brazil</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4119,20 +4119,20 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B100">
         <v>7</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>San_Cristobal_de_las_Casas_Mexico</t>
+          <t>Sao_Paulo_Brazil</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4157,20 +4157,20 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B101">
         <v>7</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tabasco_Mexico</t>
+          <t>Curitiba_Brazil</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4195,20 +4195,20 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B102">
         <v>7</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Coatepec_Mexico</t>
+          <t>Maringa_Brazil</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4233,20 +4233,20 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B103">
         <v>7</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Poza_Rica_Mexico</t>
+          <t>Marilia_Brazil</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4271,20 +4271,20 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B104">
         <v>7</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Apizaco_Mexico</t>
+          <t>Bauru_Brazil</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4309,20 +4309,20 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B105">
         <v>7</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Leon_Mexico</t>
+          <t>San_Cristobal_de_las_Casas_Mexico</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4347,20 +4347,20 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B106">
         <v>7</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Santiago_deA_Queretaro_Mexico</t>
+          <t>Tabasco_Mexico</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4385,20 +4385,20 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Zinacantepec_Mexico</t>
+          <t>Coatepec_Mexico</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4423,20 +4423,20 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B108">
         <v>7</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pinotepa_Nacional_Mexico</t>
+          <t>Poza_Rica_Mexico</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4461,20 +4461,20 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B109">
         <v>7</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cuernavaca_Mexico</t>
+          <t>Apizaco_Mexico</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4499,20 +4499,20 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B110">
         <v>7</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Los_Reyes_Acaquilpan_Mexico</t>
+          <t>Leon_Mexico</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4537,20 +4537,20 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B111">
         <v>7</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cuautitlan_Izcalli_Mexico</t>
+          <t>Santiago_deA_Queretaro_Mexico</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4575,20 +4575,20 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tepotzotlan_Mexico</t>
+          <t>Zinacantepec_Mexico</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4613,20 +4613,20 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Altamira_Mexico</t>
+          <t>Pinotepa_Nacional_Mexico</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4651,20 +4651,20 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B114">
         <v>7</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Apizaco_Mexico</t>
+          <t>Cuernavaca_Mexico</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4689,20 +4689,20 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B115">
         <v>7</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Morelia_Mexico</t>
+          <t>Los_Reyes_Acaquilpan_Mexico</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4727,20 +4727,20 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B116">
         <v>7</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cuajimalpa_de_Morelos_Mexico</t>
+          <t>Cuautitlan_Izcalli_Mexico</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4765,20 +4765,20 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B117">
         <v>7</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Toluca_Mexico</t>
+          <t>Tepotzotlan_Mexico</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4803,20 +4803,20 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B118">
         <v>7</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tocancipa_Colombia</t>
+          <t>Altamira_Mexico</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4841,20 +4841,20 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B119">
         <v>7</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Manantial_Colombia</t>
+          <t>Morelia_Mexico</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4879,20 +4879,20 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B120">
         <v>7</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Barranquilla_Colombia</t>
+          <t>Cuajimalpa_de_Morelos_Mexico</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4917,20 +4917,20 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B121">
         <v>7</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bucaramanga_Colombia</t>
+          <t>Toluca_Mexico</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4955,20 +4955,20 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B122">
         <v>7</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Medellin_Colombia</t>
+          <t>Tocancipa_Colombia</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4993,20 +4993,20 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B123">
         <v>7</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Santiago_de_Cali_Colombia</t>
+          <t>Manantial_Colombia</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5031,20 +5031,20 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B124">
         <v>7</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Bogota_Colombia</t>
+          <t>Barranquilla_Colombia</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5069,20 +5069,20 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B125">
         <v>7</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ilocos_Philippines</t>
+          <t>Bucaramanga_Colombia</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5107,20 +5107,20 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B126">
         <v>7</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ilagan_Philippines</t>
+          <t>Medellin_Colombia</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5145,20 +5145,20 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B127">
         <v>7</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>San_Fernando_Philippines</t>
+          <t>Santiago_de_Cali_Colombia</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5183,20 +5183,20 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B128">
         <v>7</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Meycauayan_Philippines</t>
+          <t>Bogota_Colombia</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5221,20 +5221,20 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B129">
         <v>7</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Naga_Philippines</t>
+          <t>Ilocos_Philippines</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5259,20 +5259,20 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B130">
         <v>7</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tacloban_Philippines</t>
+          <t>Ilagan_Philippines</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5297,20 +5297,20 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B131">
         <v>7</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mandaue_Philippines</t>
+          <t>San_Fernando_Philippines</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5335,20 +5335,20 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B132">
         <v>7</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bacolod_Philippines</t>
+          <t>Meycauayan_Philippines</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5373,20 +5373,20 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B133">
         <v>7</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Iloilo_Philippines</t>
+          <t>Naga_Philippines</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5411,20 +5411,20 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tagbilaran_Philippines</t>
+          <t>Tacloban_Philippines</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5449,20 +5449,20 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B135">
         <v>7</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Misasmis_Oriental_Philippines</t>
+          <t>Mandaue_Philippines</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5487,20 +5487,20 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Davao_Philippines</t>
+          <t>Bacolod_Philippines</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5525,20 +5525,20 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Zamboanga_Philippines</t>
+          <t>Iloilo_Philippines</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5563,20 +5563,20 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B138">
         <v>7</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Imus_Philippines</t>
+          <t>Tagbilaran_Philippines</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5601,20 +5601,20 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B139">
         <v>7</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Santa_Rosa_Philippines</t>
+          <t>Misasmis_Oriental_Philippines</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5639,20 +5639,20 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B140">
         <v>7</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Calamba_Philippines</t>
+          <t>Davao_Philippines</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5677,20 +5677,20 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B141">
         <v>7</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Monte_Grande_Argentina</t>
+          <t>Zamboanga_Philippines</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5715,20 +5715,20 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B142">
         <v>7</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Maracaibo_Venezuela</t>
+          <t>Imus_Philippines</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5753,20 +5753,20 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Valencia_Venezuela</t>
+          <t>Santa_Rosa_Philippines</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5791,20 +5791,20 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B144">
         <v>7</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Antimano_Venezuela</t>
+          <t>Calamba_Philippines</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5829,20 +5829,20 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B145">
         <v>7</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Barcelona_Venezuela</t>
+          <t>Monte_Grande_Argentina</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5867,20 +5867,20 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B146">
         <v>7</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>San_Jose_Costa_Rica</t>
+          <t>Maracaibo_Venezuela</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5905,20 +5905,20 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Coronado_Costa_Rica</t>
+          <t>Valencia_Venezuela</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5943,20 +5943,20 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B148">
         <v>7</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Panama_City_Panama</t>
+          <t>Antimano_Venezuela</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5981,168 +5981,168 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Barcelona_Venezuela</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>San_Jose_Costa_Rica</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Coronado_Costa_Rica</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Panama_City_Panama</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -6171,16 +6171,16 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B154">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -6209,16 +6209,16 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1519750212</v>
+        <v>1519841239</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -6247,210 +6247,210 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Tue_Feb_27_11:50:12_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1519750365</v>
+        <v>1519841239</v>
       </c>
       <c r="B156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>All locations</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manufacturing </t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Feb_27_11:52:45_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1519750453</v>
+        <v>1519841239</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>All locations</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Packaged Foods </t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Feb_27_11:54:13_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1519752069</v>
+        <v>1519841239</v>
       </c>
       <c r="B158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>All locations</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beverage </t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Feb_27_12:21:09_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1519752218</v>
+        <v>1519841239</v>
       </c>
       <c r="B159">
         <v>7</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t>All locations</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Packaged Foods </t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Feb_27_12:23:38_EST_2018</t>
+          <t>Wed_Feb_28_13:07:19_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1519752677</v>
+        <v>1519841853</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All locations </t>
+          <t xml:space="preserve"> Boise </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beverage </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t xml:space="preserve"> 250 </t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t xml:space="preserve"> 100 </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Feb_27_12:31:17_EST_2018</t>
+          <t xml:space="preserve"> Wed_Feb_28_13:17:33_EST_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1519753183</v>
+        <v>1519843928</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stanley_Plaza </t>
+          <t xml:space="preserve"> Boise </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 999 </t>
+          <t xml:space="preserve"> 100 </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6475,83 +6475,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Feb_27_12:39:43_EST_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>1519831270</v>
-      </c>
-      <c r="B162">
-        <v>7</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Maracaibo_Venezuela </t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 250 </t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 </t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Wed_Feb_28_10:21:10_EST_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>1519831399</v>
-      </c>
-      <c r="B163">
-        <v>7</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Campo_Grande_Brazil </t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 250 </t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 </t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fabrication/Assembly </t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Wed_Feb_28_10:23:19_EST_2018</t>
+          <t xml:space="preserve"> Wed_Feb_28_13:52:08_EST_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>input.txtAssetValue</t>
+          <t>input.txtAssetValue_tx90p</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>input.txtAssetValue_pdsisc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>input.txtAssetValue_coastalflood</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>input.txtghgEmissions</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>cbBusinessFunctions</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -401,7 +416,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -428,18 +443,33 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -466,18 +496,33 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -504,18 +549,33 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -542,18 +602,33 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -580,18 +655,33 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -618,18 +708,33 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -656,18 +761,33 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -694,18 +814,33 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -732,18 +867,33 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -770,18 +920,33 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -808,18 +973,33 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -846,18 +1026,33 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -884,18 +1079,33 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -922,18 +1132,33 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -960,18 +1185,33 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -998,18 +1238,33 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1036,18 +1291,33 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1074,18 +1344,33 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1112,18 +1397,33 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1150,18 +1450,33 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1188,18 +1503,33 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1226,18 +1556,33 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1264,18 +1609,33 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1302,18 +1662,33 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1340,18 +1715,33 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1378,18 +1768,33 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1416,18 +1821,33 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1454,18 +1874,33 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1492,18 +1927,33 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1530,18 +1980,33 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1568,18 +2033,33 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1606,18 +2086,33 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1644,18 +2139,33 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1682,18 +2192,33 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1720,18 +2245,33 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1758,18 +2298,33 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1796,18 +2351,33 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1834,18 +2404,33 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1872,18 +2457,33 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1910,18 +2510,33 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1948,18 +2563,33 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1986,18 +2616,33 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2024,18 +2669,33 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2062,18 +2722,33 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2100,18 +2775,33 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2138,18 +2828,33 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2176,18 +2881,33 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2214,18 +2934,33 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2252,18 +2987,33 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2290,18 +3040,33 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -2328,18 +3093,33 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -2366,18 +3146,33 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2404,18 +3199,33 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2442,18 +3252,33 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -2480,18 +3305,33 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2518,18 +3358,33 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2556,18 +3411,33 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -2594,18 +3464,33 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -2632,18 +3517,33 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -2670,18 +3570,33 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -2708,18 +3623,33 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -2746,18 +3676,33 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -2784,18 +3729,33 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -2822,18 +3782,33 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2860,18 +3835,33 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2898,18 +3888,33 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2936,18 +3941,33 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2974,18 +3994,33 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -3012,18 +4047,33 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -3050,18 +4100,33 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -3088,18 +4153,33 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3126,18 +4206,33 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -3164,18 +4259,33 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3202,18 +4312,33 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -3240,18 +4365,33 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -3278,18 +4418,33 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -3316,18 +4471,33 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3354,18 +4524,33 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -3392,18 +4577,33 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -3430,18 +4630,33 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -3468,18 +4683,33 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -3506,18 +4736,33 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -3544,18 +4789,33 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -3582,18 +4842,33 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -3620,18 +4895,33 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3658,18 +4948,33 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3696,18 +5001,33 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -3734,18 +5054,33 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -3772,18 +5107,33 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3810,18 +5160,33 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -3848,18 +5213,33 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -3886,18 +5266,33 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3924,18 +5319,33 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -3962,18 +5372,33 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4000,18 +5425,33 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -4038,18 +5478,33 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -4076,18 +5531,33 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4114,18 +5584,33 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -4152,18 +5637,33 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -4190,18 +5690,33 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -4228,18 +5743,33 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -4266,18 +5796,33 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -4304,18 +5849,33 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -4342,18 +5902,33 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -4380,18 +5955,33 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -4418,18 +6008,33 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -4456,18 +6061,33 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -4494,18 +6114,33 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -4532,18 +6167,33 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -4570,18 +6220,33 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -4608,18 +6273,33 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -4646,18 +6326,33 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -4684,18 +6379,33 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -4722,18 +6432,33 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -4760,18 +6485,33 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -4798,18 +6538,33 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -4836,18 +6591,33 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -4874,18 +6644,33 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -4912,18 +6697,33 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -4950,18 +6750,33 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -4988,18 +6803,33 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -5026,18 +6856,33 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -5064,18 +6909,33 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -5102,18 +6962,33 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -5140,18 +7015,33 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -5178,18 +7068,33 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -5216,18 +7121,33 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -5254,18 +7174,33 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -5292,18 +7227,33 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -5330,18 +7280,33 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -5368,18 +7333,33 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -5406,18 +7386,33 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -5444,18 +7439,33 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -5482,18 +7492,33 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -5520,18 +7545,33 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -5558,18 +7598,33 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -5596,18 +7651,33 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -5634,18 +7704,33 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -5672,18 +7757,33 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -5710,18 +7810,33 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -5748,18 +7863,33 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -5786,18 +7916,33 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -5824,18 +7969,33 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -5862,18 +8022,33 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -5900,18 +8075,33 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -5938,18 +8128,33 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -5976,18 +8181,33 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -6014,18 +8234,33 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -6052,18 +8287,33 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6090,18 +8340,33 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -6128,18 +8393,33 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Clean Room Manufacturing, R&amp;D</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6171,13 +8451,28 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -6209,13 +8504,28 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -6247,13 +8557,28 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6285,13 +8610,28 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B157">
         <v>5</v>
@@ -6323,13 +8663,28 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B158">
         <v>6</v>
@@ -6361,13 +8716,28 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1519841239</v>
+        <v>1522173608</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -6399,16 +8769,31 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Wed_Feb_28_13:07:19_EST_2018</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1519841853</v>
+        <v>1522175051</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -6422,7 +8807,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t xml:space="preserve"> 249 </t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6432,21 +8817,36 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 </t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.12 </t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Wed_Feb_28_13:17:33_EST_2018</t>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Mar_27_14:24:11_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1519843928</v>
+        <v>1522175139</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -6460,7 +8860,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 </t>
+          <t xml:space="preserve"> 249 </t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6470,12 +8870,80 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 </t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.12 </t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Wed_Feb_28_13:52:08_EST_2018</t>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Mar_27_14:25:39_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>1522175324</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campo_Grande_Brazil </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 249 </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 </t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.034 </t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tue_Mar_27_14:28:44_EDT_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -463,13 +463,13 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -516,13 +516,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -569,13 +569,13 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -622,13 +622,13 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -675,13 +675,13 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -728,13 +728,13 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -781,13 +781,13 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -834,13 +834,13 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -887,13 +887,13 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -940,13 +940,13 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -993,13 +993,13 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1046,13 +1046,13 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1099,13 +1099,13 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1205,13 +1205,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1258,13 +1258,13 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1311,13 +1311,13 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1364,13 +1364,13 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1417,13 +1417,13 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1629,13 +1629,13 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1682,13 +1682,13 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1735,13 +1735,13 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1788,13 +1788,13 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1894,13 +1894,13 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1947,13 +1947,13 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2000,13 +2000,13 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2053,13 +2053,13 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2159,13 +2159,13 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2265,13 +2265,13 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2318,13 +2318,13 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2371,13 +2371,13 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2477,13 +2477,13 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2583,13 +2583,13 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2636,13 +2636,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2742,13 +2742,13 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2795,13 +2795,13 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2848,13 +2848,13 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2901,13 +2901,13 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3007,13 +3007,13 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3060,13 +3060,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3113,13 +3113,13 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -3166,13 +3166,13 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3219,13 +3219,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3272,13 +3272,13 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -3325,13 +3325,13 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3378,13 +3378,13 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -3431,13 +3431,13 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3537,13 +3537,13 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3590,13 +3590,13 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3643,13 +3643,13 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -3696,13 +3696,13 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3749,13 +3749,13 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3802,13 +3802,13 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3855,13 +3855,13 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3961,13 +3961,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4014,13 +4014,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4120,13 +4120,13 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4173,13 +4173,13 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4279,13 +4279,13 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4332,13 +4332,13 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4385,13 +4385,13 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4438,13 +4438,13 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4491,13 +4491,13 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4544,13 +4544,13 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4650,13 +4650,13 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4703,13 +4703,13 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4756,13 +4756,13 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4809,13 +4809,13 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4862,13 +4862,13 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4915,13 +4915,13 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4968,13 +4968,13 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -5021,13 +5021,13 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -5074,13 +5074,13 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5127,13 +5127,13 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5180,13 +5180,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5233,13 +5233,13 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -5286,13 +5286,13 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -5339,13 +5339,13 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -5392,13 +5392,13 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -5445,13 +5445,13 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -5498,13 +5498,13 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -5551,13 +5551,13 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -5604,13 +5604,13 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -5657,13 +5657,13 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -5710,13 +5710,13 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -5869,13 +5869,13 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -5922,13 +5922,13 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -5975,13 +5975,13 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -6028,13 +6028,13 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -6081,13 +6081,13 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -6134,13 +6134,13 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -6187,13 +6187,13 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -6240,13 +6240,13 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -6346,13 +6346,13 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -6399,13 +6399,13 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -6452,13 +6452,13 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -6558,13 +6558,13 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -6664,13 +6664,13 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -6717,13 +6717,13 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -6770,13 +6770,13 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -6823,13 +6823,13 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -6876,13 +6876,13 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -6929,13 +6929,13 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -6982,13 +6982,13 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -7035,13 +7035,13 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -7088,13 +7088,13 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -7141,13 +7141,13 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -7194,13 +7194,13 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -7247,13 +7247,13 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -7300,13 +7300,13 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -7353,13 +7353,13 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -7459,13 +7459,13 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -7512,13 +7512,13 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -7565,13 +7565,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -7618,13 +7618,13 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -7671,13 +7671,13 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -7724,13 +7724,13 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -7777,13 +7777,13 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -7830,13 +7830,13 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -7883,13 +7883,13 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -7936,13 +7936,13 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -7989,13 +7989,13 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -8042,13 +8042,13 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -8095,13 +8095,13 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -8201,13 +8201,13 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -8254,13 +8254,13 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -8307,13 +8307,13 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -8360,13 +8360,13 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -8413,537 +8413,1332 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Kerry_Ireland</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Grasse_France</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Guanajuato_Mexico</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>LapulapuCity_Cebu_Philipines</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Lake_Zuirich_Illinois_USA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1522173608</v>
+        <v>1527859196</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Manaus_Brazil</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Tue_Mar_27_14:00:08_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1522175051</v>
+        <v>1527859196</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boise </t>
+          <t>Western_Cape_South_Africa</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 249 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t>90</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80 </t>
+          <t>80</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.12 </t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Mar_27_14:24:11_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1522175139</v>
+        <v>1527859196</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boise </t>
+          <t>Sydney_Australia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 249 </t>
+          <t>250</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t>100</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t>90</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80 </t>
+          <t>80</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.12 </t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tue_Mar_27_14:25:39_EDT_2018</t>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1522175324</v>
+        <v>1527859196</v>
       </c>
       <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Bangalore_india</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>1527859196</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Los_Angeles_USA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>1527859196</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Pontevedra_Spain</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>1527859196</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>801_Brickell_Miami_USA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>1527859196</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Xanadu_Centre_Madrid_Spain</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>1527859196</v>
+      </c>
+      <c r="B167">
+        <v>9</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Ginza_1_Chome_Tokyo_Japan</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>1527859196</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>1527859196</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>1527859196</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>1527859196</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>1527859196</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>1527859196</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>1527859196</v>
+      </c>
+      <c r="B174">
         <v>7</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Campo_Grande_Brazil </t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>1527859196</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>1527859196</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>1527860379</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All locations </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverage </t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 249 </t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 </t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 90 </t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 80 </t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.034 </t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clean Room Manufacturing, R&amp;D </t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tue_Mar_27_14:28:44_EDT_2018</t>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Jun__1_09:39:39_EDT_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -463,13 +463,13 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -516,13 +516,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -569,13 +569,13 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -622,13 +622,13 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -675,13 +675,13 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -728,13 +728,13 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -781,13 +781,13 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -834,13 +834,13 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -887,13 +887,13 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -940,13 +940,13 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -993,13 +993,13 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1046,13 +1046,13 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1099,13 +1099,13 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1205,13 +1205,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1258,13 +1258,13 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1311,13 +1311,13 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1364,13 +1364,13 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1417,13 +1417,13 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1629,13 +1629,13 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1682,13 +1682,13 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1735,13 +1735,13 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1788,13 +1788,13 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1894,13 +1894,13 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1947,13 +1947,13 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2000,13 +2000,13 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2053,13 +2053,13 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2159,13 +2159,13 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2265,13 +2265,13 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2318,13 +2318,13 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2371,13 +2371,13 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2477,13 +2477,13 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2583,13 +2583,13 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2636,13 +2636,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2742,13 +2742,13 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2795,13 +2795,13 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2848,13 +2848,13 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2901,13 +2901,13 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3007,13 +3007,13 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3060,13 +3060,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3113,13 +3113,13 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -3166,13 +3166,13 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3219,13 +3219,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3272,13 +3272,13 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -3325,13 +3325,13 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3378,13 +3378,13 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -3431,13 +3431,13 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3537,13 +3537,13 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3590,13 +3590,13 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3643,13 +3643,13 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -3696,13 +3696,13 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3749,13 +3749,13 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3802,13 +3802,13 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3855,13 +3855,13 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3961,13 +3961,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4014,13 +4014,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4120,13 +4120,13 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4173,13 +4173,13 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4279,13 +4279,13 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4332,13 +4332,13 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4385,13 +4385,13 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4438,13 +4438,13 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4491,13 +4491,13 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4544,13 +4544,13 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4650,13 +4650,13 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4703,13 +4703,13 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4756,13 +4756,13 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4809,13 +4809,13 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4862,13 +4862,13 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4915,13 +4915,13 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4968,13 +4968,13 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -5021,13 +5021,13 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -5074,13 +5074,13 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5127,13 +5127,13 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5180,13 +5180,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5233,13 +5233,13 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -5286,13 +5286,13 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -5339,13 +5339,13 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -5392,13 +5392,13 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -5445,13 +5445,13 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -5498,13 +5498,13 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -5551,13 +5551,13 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -5604,13 +5604,13 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -5657,13 +5657,13 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -5710,13 +5710,13 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -5869,13 +5869,13 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -5922,13 +5922,13 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -5975,13 +5975,13 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -6028,13 +6028,13 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -6081,13 +6081,13 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -6134,13 +6134,13 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -6187,13 +6187,13 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -6240,13 +6240,13 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -6346,13 +6346,13 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -6399,13 +6399,13 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -6452,13 +6452,13 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -6558,13 +6558,13 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -6664,13 +6664,13 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -6717,13 +6717,13 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -6770,13 +6770,13 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -6823,13 +6823,13 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -6876,13 +6876,13 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -6929,13 +6929,13 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -6982,13 +6982,13 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -7035,13 +7035,13 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -7088,13 +7088,13 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -7141,13 +7141,13 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -7194,13 +7194,13 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -7247,13 +7247,13 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -7300,13 +7300,13 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -7353,13 +7353,13 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -7459,13 +7459,13 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -7512,13 +7512,13 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -7565,13 +7565,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -7618,13 +7618,13 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -7671,13 +7671,13 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -7724,13 +7724,13 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -7777,13 +7777,13 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -7830,13 +7830,13 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -7883,13 +7883,13 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -7936,13 +7936,13 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -7989,13 +7989,13 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -8042,13 +8042,13 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -8095,13 +8095,13 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -8201,13 +8201,13 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -8254,13 +8254,13 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -8307,13 +8307,13 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -8360,13 +8360,13 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -8413,13 +8413,13 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -8466,13 +8466,13 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B154">
         <v>8</v>
@@ -8519,13 +8519,13 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -8572,13 +8572,13 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -8625,13 +8625,13 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -8678,13 +8678,13 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B158">
         <v>8</v>
@@ -8731,13 +8731,13 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -8784,13 +8784,13 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -8837,13 +8837,13 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -8890,13 +8890,13 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B162">
         <v>8</v>
@@ -8943,13 +8943,13 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -8996,13 +8996,13 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -9049,13 +9049,13 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -9102,13 +9102,13 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -9155,13 +9155,13 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -9208,537 +9208,4194 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Berkeley_County_SC</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Council_Bluffs_Iowa</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Douglas_County_Georgia</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Jackson_County_Alabama</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Lenoir_NC</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Mayes_County_Oklahoma</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Montgomery_County_TN</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B175">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>The_Dalles_Oregon</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1527859196</v>
+        <v>1528654903</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Quilicura_Chile</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Fri_Jun__1_09:19:56_EDT_2018</t>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1527860379</v>
+        <v>1528654903</v>
       </c>
       <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Dublin_Ireland</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>1528654903</v>
+      </c>
+      <c r="B178">
+        <v>10</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Eemshaven_Netherlands</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>1528654903</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Hamina_Finland</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>1528654903</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>St_Ghislain_Belgium</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>1528654903</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Changhua_County_Taiwan</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>1528654903</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>1528654903</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ashburn_VA</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>1528654903</v>
+      </c>
+      <c r="B184">
+        <v>11</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Highlands_Ranch_CO</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>1528654903</v>
+      </c>
+      <c r="B185">
+        <v>11</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>London_UK</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>1528654903</v>
+      </c>
+      <c r="B186">
+        <v>11</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>1528654903</v>
+      </c>
+      <c r="B187">
+        <v>12</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>1528654903</v>
+      </c>
+      <c r="B188">
+        <v>12</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Hong_Kong</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>1528654903</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Melbourne_Australia</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>1528654903</v>
+      </c>
+      <c r="B190">
+        <v>12</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sydney_Australia</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>1528654903</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Sao_Paulo_Brazil</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>1528654903</v>
+      </c>
+      <c r="B192">
+        <v>12</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Saitama_Japan</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>1528654903</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Osaka_Japan</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>1528654903</v>
+      </c>
+      <c r="B194">
+        <v>12</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Dublin_Ireland</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>1528654903</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Ashburn_Virginia</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>1528654903</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Chicago_Illinois</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>1528654903</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Prineville_Oregon</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>1528654903</v>
+      </c>
+      <c r="B198">
+        <v>13</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Reno_NV</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>1528654903</v>
+      </c>
+      <c r="B199">
+        <v>13</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Maiden_NC</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>1528654903</v>
+      </c>
+      <c r="B200">
+        <v>13</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Santa_Clara_CA</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>1528654903</v>
+      </c>
+      <c r="B201">
+        <v>13</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Mesa_AZ</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>1528654903</v>
+      </c>
+      <c r="B202">
+        <v>13</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Waukee_Iowa</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>1528654903</v>
+      </c>
+      <c r="B203">
+        <v>13</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Viborg_Denmark</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>1528654903</v>
+      </c>
+      <c r="B204">
+        <v>13</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Aabenraa_Denmark</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>1528654903</v>
+      </c>
+      <c r="B205">
+        <v>13</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Ulanqab_China</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>1528654903</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Guizhou_China</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>1528654903</v>
+      </c>
+      <c r="B207">
+        <v>14</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Puebla_Mexico</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>1528654903</v>
+      </c>
+      <c r="B208">
+        <v>14</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Uitenhage_South_Africa</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>1528654903</v>
+      </c>
+      <c r="B209">
+        <v>14</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Chattanooga_TN</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>1528654903</v>
+      </c>
+      <c r="B210">
+        <v>14</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Pamela_Portugal</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>1528654903</v>
+      </c>
+      <c r="B211">
+        <v>14</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Chakan_India</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>1528654903</v>
+      </c>
+      <c r="B212">
+        <v>14</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Taubate_Brazil</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>1528654903</v>
+      </c>
+      <c r="B213">
+        <v>14</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Sao_Bernardo_Brazil</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>1528654903</v>
+      </c>
+      <c r="B214">
+        <v>14</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sao_Jose_dos_Pinhais_Brazil</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>1528654903</v>
+      </c>
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sao_Carlos_Brazil</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>1528654903</v>
+      </c>
+      <c r="B216">
+        <v>14</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Cordoba_Argentina</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>1528654903</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Pacheco_Argentina</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>1528654903</v>
+      </c>
+      <c r="B218">
+        <v>14</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Braunschweig_Germany</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>1528654903</v>
+      </c>
+      <c r="B219">
+        <v>14</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Chemnitz_Germany</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>1528654903</v>
+      </c>
+      <c r="B220">
+        <v>14</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Dresden_Germany</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>1528654903</v>
+      </c>
+      <c r="B221">
+        <v>14</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Emden_Germany</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>1528654903</v>
+      </c>
+      <c r="B222">
+        <v>14</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Hannover_Germany</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>1528654903</v>
+      </c>
+      <c r="B223">
+        <v>14</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Kassel_Germany</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>1528654903</v>
+      </c>
+      <c r="B224">
+        <v>14</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Osnabruck_Germany</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>1528654903</v>
+      </c>
+      <c r="B225">
+        <v>14</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Salzgitter_Germany</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>1528654903</v>
+      </c>
+      <c r="B226">
+        <v>14</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Wolfsburg_Germany</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>1528654903</v>
+      </c>
+      <c r="B227">
+        <v>14</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Zwickau_Germany</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>1528654903</v>
+      </c>
+      <c r="B228">
+        <v>15</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Los_Angeles_CA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>1528654903</v>
+      </c>
+      <c r="B229">
+        <v>15</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Richmond_VA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>1528654903</v>
+      </c>
+      <c r="B230">
+        <v>15</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Richardson_TX</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>1528654903</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>1528654903</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>1528654903</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>1528654903</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>1528654903</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>1528654903</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>1528654903</v>
+      </c>
+      <c r="B237">
+        <v>7</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>1528654903</v>
+      </c>
+      <c r="B238">
+        <v>8</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>1528654903</v>
+      </c>
+      <c r="B239">
         <v>9</v>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>1528654903</v>
+      </c>
+      <c r="B240">
+        <v>10</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>1528654903</v>
+      </c>
+      <c r="B241">
+        <v>11</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>1528654903</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>1528654903</v>
+      </c>
+      <c r="B243">
+        <v>13</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>1528654903</v>
+      </c>
+      <c r="B244">
+        <v>14</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>1528654903</v>
+      </c>
+      <c r="B245">
+        <v>15</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>1528655204</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="inlineStr">
         <is>
           <t xml:space="preserve"> All locations </t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Beverage </t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manufacturing </t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I246" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fri_Jun__1_09:39:39_EDT_2018</t>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sun_Jun_10_14:26:44_EDT_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -463,13 +463,13 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -516,13 +516,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -569,13 +569,13 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -622,13 +622,13 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -675,13 +675,13 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -728,13 +728,13 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -781,13 +781,13 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -834,13 +834,13 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -887,13 +887,13 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -940,13 +940,13 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -993,13 +993,13 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1046,13 +1046,13 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1099,13 +1099,13 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1205,13 +1205,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1258,13 +1258,13 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1311,13 +1311,13 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1364,13 +1364,13 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1417,13 +1417,13 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1629,13 +1629,13 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1682,13 +1682,13 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1735,13 +1735,13 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1788,13 +1788,13 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1894,13 +1894,13 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1947,13 +1947,13 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2000,13 +2000,13 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2053,13 +2053,13 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2159,13 +2159,13 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2265,13 +2265,13 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2318,13 +2318,13 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2371,13 +2371,13 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2477,13 +2477,13 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2583,13 +2583,13 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2636,13 +2636,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2742,13 +2742,13 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2795,13 +2795,13 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2848,13 +2848,13 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2901,13 +2901,13 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3007,13 +3007,13 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3060,13 +3060,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3113,13 +3113,13 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -3166,13 +3166,13 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3219,13 +3219,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3272,13 +3272,13 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -3325,13 +3325,13 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3378,13 +3378,13 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -3431,13 +3431,13 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3537,13 +3537,13 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3590,13 +3590,13 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3643,13 +3643,13 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -3696,13 +3696,13 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3749,13 +3749,13 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3802,13 +3802,13 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3855,13 +3855,13 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3961,13 +3961,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4014,13 +4014,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4120,13 +4120,13 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4173,13 +4173,13 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4279,13 +4279,13 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4332,13 +4332,13 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4385,13 +4385,13 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4438,13 +4438,13 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4491,13 +4491,13 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4544,13 +4544,13 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4650,13 +4650,13 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4703,13 +4703,13 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4756,13 +4756,13 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4809,13 +4809,13 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4862,13 +4862,13 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4915,13 +4915,13 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4968,13 +4968,13 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -5021,13 +5021,13 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -5074,13 +5074,13 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5127,13 +5127,13 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5180,13 +5180,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5233,13 +5233,13 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -5286,13 +5286,13 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -5339,13 +5339,13 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -5392,13 +5392,13 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -5445,13 +5445,13 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -5498,13 +5498,13 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -5551,13 +5551,13 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -5604,13 +5604,13 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -5657,13 +5657,13 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -5710,13 +5710,13 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -5869,13 +5869,13 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -5922,13 +5922,13 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -5975,13 +5975,13 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -6028,13 +6028,13 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -6081,13 +6081,13 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -6134,13 +6134,13 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -6187,13 +6187,13 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -6240,13 +6240,13 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -6346,13 +6346,13 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -6399,13 +6399,13 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -6452,13 +6452,13 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -6558,13 +6558,13 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -6664,13 +6664,13 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -6717,13 +6717,13 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -6770,13 +6770,13 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -6823,13 +6823,13 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -6876,13 +6876,13 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -6929,13 +6929,13 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -6982,13 +6982,13 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -7035,13 +7035,13 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -7088,13 +7088,13 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -7141,13 +7141,13 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -7194,13 +7194,13 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -7247,13 +7247,13 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -7300,13 +7300,13 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -7353,13 +7353,13 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -7459,13 +7459,13 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -7512,13 +7512,13 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -7565,13 +7565,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -7618,13 +7618,13 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -7671,13 +7671,13 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -7724,13 +7724,13 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -7777,13 +7777,13 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -7830,13 +7830,13 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -7883,13 +7883,13 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -7936,13 +7936,13 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -7989,13 +7989,13 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -8042,13 +8042,13 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -8095,13 +8095,13 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -8201,13 +8201,13 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -8254,13 +8254,13 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -8307,13 +8307,13 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -8360,13 +8360,13 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -8413,13 +8413,13 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -8466,13 +8466,13 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B154">
         <v>8</v>
@@ -8519,13 +8519,13 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -8572,13 +8572,13 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -8625,13 +8625,13 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -8678,13 +8678,13 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B158">
         <v>8</v>
@@ -8731,13 +8731,13 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -8784,13 +8784,13 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -8837,13 +8837,13 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -8890,13 +8890,13 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B162">
         <v>8</v>
@@ -8943,13 +8943,13 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -8996,13 +8996,13 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -9049,13 +9049,13 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -9102,13 +9102,13 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -9155,13 +9155,13 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -9208,13 +9208,13 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -9261,13 +9261,13 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B169">
         <v>10</v>
@@ -9314,13 +9314,13 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B170">
         <v>10</v>
@@ -9367,13 +9367,13 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B171">
         <v>10</v>
@@ -9420,13 +9420,13 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B172">
         <v>10</v>
@@ -9473,13 +9473,13 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B173">
         <v>10</v>
@@ -9526,13 +9526,13 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B174">
         <v>10</v>
@@ -9579,13 +9579,13 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B175">
         <v>10</v>
@@ -9632,13 +9632,13 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B176">
         <v>10</v>
@@ -9685,13 +9685,13 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B177">
         <v>10</v>
@@ -9738,13 +9738,13 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B178">
         <v>10</v>
@@ -9791,13 +9791,13 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B179">
         <v>10</v>
@@ -9844,13 +9844,13 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B180">
         <v>10</v>
@@ -9897,13 +9897,13 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B181">
         <v>10</v>
@@ -9950,13 +9950,13 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B182">
         <v>10</v>
@@ -10003,13 +10003,13 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B183">
         <v>11</v>
@@ -10056,13 +10056,13 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -10109,13 +10109,13 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B185">
         <v>11</v>
@@ -10162,13 +10162,13 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B186">
         <v>11</v>
@@ -10215,13 +10215,13 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B187">
         <v>12</v>
@@ -10268,13 +10268,13 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B188">
         <v>12</v>
@@ -10321,13 +10321,13 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B189">
         <v>12</v>
@@ -10374,13 +10374,13 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B190">
         <v>12</v>
@@ -10427,13 +10427,13 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B191">
         <v>12</v>
@@ -10480,13 +10480,13 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B192">
         <v>12</v>
@@ -10533,13 +10533,13 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B193">
         <v>12</v>
@@ -10586,13 +10586,13 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B194">
         <v>12</v>
@@ -10639,13 +10639,13 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B195">
         <v>12</v>
@@ -10692,13 +10692,13 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B196">
         <v>12</v>
@@ -10745,13 +10745,13 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B197">
         <v>13</v>
@@ -10798,13 +10798,13 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B198">
         <v>13</v>
@@ -10851,13 +10851,13 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B199">
         <v>13</v>
@@ -10904,13 +10904,13 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B200">
         <v>13</v>
@@ -10957,13 +10957,13 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B201">
         <v>13</v>
@@ -11010,13 +11010,13 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B202">
         <v>13</v>
@@ -11063,13 +11063,13 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B203">
         <v>13</v>
@@ -11116,13 +11116,13 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B204">
         <v>13</v>
@@ -11169,13 +11169,13 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B205">
         <v>13</v>
@@ -11222,13 +11222,13 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B206">
         <v>13</v>
@@ -11275,13 +11275,13 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B207">
         <v>14</v>
@@ -11328,13 +11328,13 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B208">
         <v>14</v>
@@ -11381,13 +11381,13 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B209">
         <v>14</v>
@@ -11434,13 +11434,13 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B210">
         <v>14</v>
@@ -11487,13 +11487,13 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B211">
         <v>14</v>
@@ -11540,13 +11540,13 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B212">
         <v>14</v>
@@ -11593,13 +11593,13 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -11646,13 +11646,13 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B214">
         <v>14</v>
@@ -11699,13 +11699,13 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B215">
         <v>14</v>
@@ -11752,13 +11752,13 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B216">
         <v>14</v>
@@ -11805,13 +11805,13 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B217">
         <v>14</v>
@@ -11858,13 +11858,13 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B218">
         <v>14</v>
@@ -11911,13 +11911,13 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B219">
         <v>14</v>
@@ -11964,13 +11964,13 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B220">
         <v>14</v>
@@ -12017,13 +12017,13 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B221">
         <v>14</v>
@@ -12070,13 +12070,13 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B222">
         <v>14</v>
@@ -12123,13 +12123,13 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B223">
         <v>14</v>
@@ -12176,13 +12176,13 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B224">
         <v>14</v>
@@ -12229,13 +12229,13 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B225">
         <v>14</v>
@@ -12282,13 +12282,13 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B226">
         <v>14</v>
@@ -12335,13 +12335,13 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B227">
         <v>14</v>
@@ -12388,13 +12388,13 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B228">
         <v>15</v>
@@ -12441,13 +12441,13 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B229">
         <v>15</v>
@@ -12494,13 +12494,13 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B230">
         <v>15</v>
@@ -12547,855 +12547,3558 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>GrandPrairie_TX</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>CostaMesa_CA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Everett_WA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Walton_KY</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Ashburn_VA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B236">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Toronto_Canada</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Bedford_NH</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Rochester_NH</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Queretaro_Mexico</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B240">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Chihuahua_Mexico</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B241">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Xerem_Brazil</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B242">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>SaoJose_dosCampos_Brazil</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B243">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Bankstown_Australia</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B244">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Singapore_LandingSystems</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1528654903</v>
+        <v>1528947117</v>
       </c>
       <c r="B245">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Singapore_HeloEngines</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Sun_Jun_10_14:21:43_EDT_2018</t>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1528655204</v>
+        <v>1528947117</v>
       </c>
       <c r="B246">
+        <v>16</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Negeri_Sembilan_Malaysia</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>1528947117</v>
+      </c>
+      <c r="B247">
+        <v>16</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Komsomolsk_Russia</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>1528947117</v>
+      </c>
+      <c r="B248">
+        <v>16</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Beijing_China</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>1528947117</v>
+      </c>
+      <c r="B249">
+        <v>16</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Guizhou_China</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>1528947117</v>
+      </c>
+      <c r="B250">
+        <v>16</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Suzhou_China_LandingSystems</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>1528947117</v>
+      </c>
+      <c r="B251">
+        <v>16</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Suzhou_China_AircraftEngines</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>1528947117</v>
+      </c>
+      <c r="B252">
+        <v>16</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Temara_Morocco</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>1528947117</v>
+      </c>
+      <c r="B253">
+        <v>16</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Casablanca_Morocco</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>1528947117</v>
+      </c>
+      <c r="B254">
+        <v>16</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Burnley_UK</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>1528947117</v>
+      </c>
+      <c r="B255">
+        <v>16</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Gloucester_UK</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>1528947117</v>
+      </c>
+      <c r="B256">
+        <v>16</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Pitstone_Green_UK</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>1528947117</v>
+      </c>
+      <c r="B257">
+        <v>16</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Fareham_UK</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>1528947117</v>
+      </c>
+      <c r="B258">
+        <v>16</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Hamburg_Germany_HeloEngines</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>1528947117</v>
+      </c>
+      <c r="B259">
+        <v>16</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Hamburg_Germany_Nacelles</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>1528947117</v>
+      </c>
+      <c r="B260">
+        <v>16</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Herstal_Belgium</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>1528947117</v>
+      </c>
+      <c r="B261">
+        <v>16</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Commercy_France</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>1528947117</v>
+      </c>
+      <c r="B262">
+        <v>16</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Florange_France</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>1528947117</v>
+      </c>
+      <c r="B263">
+        <v>16</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Molsheim_France</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>1528947117</v>
+      </c>
+      <c r="B264">
+        <v>16</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Vernon_France</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>1528947117</v>
+      </c>
+      <c r="B265">
+        <v>16</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Buchelay_France</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>1528947117</v>
+      </c>
+      <c r="B266">
+        <v>16</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Mantes_La_Ville_France</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>1528947117</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Eragny_France</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>1528947117</v>
+      </c>
+      <c r="B268">
+        <v>16</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Gennevilliers_France</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>1528947117</v>
+      </c>
+      <c r="B269">
+        <v>16</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Saint_Quentin_France</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>1528947117</v>
+      </c>
+      <c r="B270">
+        <v>16</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Massy_France</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>1528947117</v>
+      </c>
+      <c r="B271">
+        <v>16</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Fougeres_France</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>1528947117</v>
+      </c>
+      <c r="B272">
+        <v>16</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Montflucon_France</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>1528947117</v>
+      </c>
+      <c r="B273">
+        <v>16</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Chatellerault_France</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>1528947117</v>
+      </c>
+      <c r="B274">
+        <v>16</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Poitiers_France</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>1528947117</v>
+      </c>
+      <c r="B275">
+        <v>16</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Villeurbanne_France</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>1528947117</v>
+      </c>
+      <c r="B276">
+        <v>16</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Valence_France</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>1528947117</v>
+      </c>
+      <c r="B277">
+        <v>16</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Istres_France</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>1528947117</v>
+      </c>
+      <c r="B278">
+        <v>16</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Colomiers_France</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>1528947117</v>
+      </c>
+      <c r="B279">
+        <v>16</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Tarnos_France</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>1528947117</v>
+      </c>
+      <c r="B280">
+        <v>16</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Bidos_France</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Clean Room Manufacturing, R&amp;D</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>1528947117</v>
+      </c>
+      <c r="B281">
         <v>1</v>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>1528947117</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1528947117</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>1528947117</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>1528947117</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>1528947117</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>1528947117</v>
+      </c>
+      <c r="B287">
+        <v>7</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>1528947117</v>
+      </c>
+      <c r="B288">
+        <v>8</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>1528947117</v>
+      </c>
+      <c r="B289">
+        <v>9</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>1528947117</v>
+      </c>
+      <c r="B290">
+        <v>10</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>1528947117</v>
+      </c>
+      <c r="B291">
+        <v>11</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>1528947117</v>
+      </c>
+      <c r="B292">
+        <v>12</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>1528947117</v>
+      </c>
+      <c r="B293">
+        <v>13</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>1528947117</v>
+      </c>
+      <c r="B294">
+        <v>14</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>1528947117</v>
+      </c>
+      <c r="B295">
+        <v>15</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>1528947117</v>
+      </c>
+      <c r="B296">
+        <v>16</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>1528947611</v>
+      </c>
+      <c r="B297">
+        <v>16</v>
+      </c>
+      <c r="C297" t="inlineStr">
         <is>
           <t xml:space="preserve"> All locations </t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Manufacturing </t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
+      <c r="D297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverage </t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F297" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H297" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="I246" t="inlineStr">
+      <c r="I297" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="J246" t="inlineStr">
+      <c r="J297" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sun_Jun_10_14:26:44_EDT_2018</t>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wed_Jun_13_23:40:11_EDT_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -416,7 +416,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -463,13 +463,13 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -516,13 +516,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -569,13 +569,13 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -622,13 +622,13 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -675,13 +675,13 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -728,13 +728,13 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -781,13 +781,13 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -834,13 +834,13 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -887,13 +887,13 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -940,13 +940,13 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -993,13 +993,13 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1046,13 +1046,13 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1099,13 +1099,13 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1205,13 +1205,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1258,13 +1258,13 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1311,13 +1311,13 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1364,13 +1364,13 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1417,13 +1417,13 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1629,13 +1629,13 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1682,13 +1682,13 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1735,13 +1735,13 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1788,13 +1788,13 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1894,13 +1894,13 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1947,13 +1947,13 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2000,13 +2000,13 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2053,13 +2053,13 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2159,13 +2159,13 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2265,13 +2265,13 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2318,13 +2318,13 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2371,13 +2371,13 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2477,13 +2477,13 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2583,13 +2583,13 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2636,13 +2636,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2742,13 +2742,13 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2795,13 +2795,13 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2848,13 +2848,13 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2901,13 +2901,13 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3007,13 +3007,13 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3060,13 +3060,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3113,13 +3113,13 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -3166,13 +3166,13 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3219,13 +3219,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3272,13 +3272,13 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -3325,13 +3325,13 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3378,13 +3378,13 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -3431,13 +3431,13 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3537,13 +3537,13 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3590,13 +3590,13 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3643,13 +3643,13 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -3696,13 +3696,13 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3749,13 +3749,13 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3802,13 +3802,13 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3855,13 +3855,13 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3961,13 +3961,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4014,13 +4014,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4120,13 +4120,13 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4173,13 +4173,13 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4279,13 +4279,13 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4332,13 +4332,13 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4385,13 +4385,13 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4438,13 +4438,13 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4491,13 +4491,13 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4544,13 +4544,13 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4650,13 +4650,13 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4703,13 +4703,13 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4756,13 +4756,13 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4809,13 +4809,13 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4862,13 +4862,13 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4915,13 +4915,13 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4968,13 +4968,13 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -5021,13 +5021,13 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -5074,13 +5074,13 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5127,13 +5127,13 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5180,13 +5180,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5233,13 +5233,13 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -5286,13 +5286,13 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -5339,13 +5339,13 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -5392,13 +5392,13 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -5445,13 +5445,13 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -5498,13 +5498,13 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -5551,13 +5551,13 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -5604,13 +5604,13 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -5657,13 +5657,13 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -5710,13 +5710,13 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -5869,13 +5869,13 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -5922,13 +5922,13 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -5975,13 +5975,13 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -6028,13 +6028,13 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -6081,13 +6081,13 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -6134,13 +6134,13 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -6187,13 +6187,13 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -6240,13 +6240,13 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -6346,13 +6346,13 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -6399,13 +6399,13 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -6452,13 +6452,13 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -6558,13 +6558,13 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -6664,13 +6664,13 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -6717,13 +6717,13 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -6770,13 +6770,13 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -6823,13 +6823,13 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -6876,13 +6876,13 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -6929,13 +6929,13 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -6982,13 +6982,13 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -7035,13 +7035,13 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -7088,13 +7088,13 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -7141,13 +7141,13 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -7194,13 +7194,13 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -7247,13 +7247,13 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -7300,13 +7300,13 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -7353,13 +7353,13 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -7459,13 +7459,13 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -7512,13 +7512,13 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -7565,13 +7565,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -7618,13 +7618,13 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -7671,13 +7671,13 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -7724,13 +7724,13 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -7777,13 +7777,13 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -7830,13 +7830,13 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -7883,13 +7883,13 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -7936,13 +7936,13 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -7989,13 +7989,13 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -8042,13 +8042,13 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -8095,13 +8095,13 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -8201,13 +8201,13 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -8254,13 +8254,13 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -8307,13 +8307,13 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -8360,13 +8360,13 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -8413,13 +8413,13 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -8466,13 +8466,13 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B154">
         <v>8</v>
@@ -8519,13 +8519,13 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -8572,13 +8572,13 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -8625,13 +8625,13 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -8678,13 +8678,13 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B158">
         <v>8</v>
@@ -8731,13 +8731,13 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -8784,13 +8784,13 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -8837,13 +8837,13 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -8890,13 +8890,13 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B162">
         <v>8</v>
@@ -8943,13 +8943,13 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -8996,13 +8996,13 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -9049,13 +9049,13 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -9102,13 +9102,13 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -9155,13 +9155,13 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -9208,13 +9208,13 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -9261,13 +9261,13 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B169">
         <v>10</v>
@@ -9314,13 +9314,13 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B170">
         <v>10</v>
@@ -9367,13 +9367,13 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B171">
         <v>10</v>
@@ -9420,13 +9420,13 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B172">
         <v>10</v>
@@ -9473,13 +9473,13 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B173">
         <v>10</v>
@@ -9526,13 +9526,13 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B174">
         <v>10</v>
@@ -9579,13 +9579,13 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B175">
         <v>10</v>
@@ -9632,13 +9632,13 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B176">
         <v>10</v>
@@ -9685,13 +9685,13 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B177">
         <v>10</v>
@@ -9738,13 +9738,13 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B178">
         <v>10</v>
@@ -9791,13 +9791,13 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B179">
         <v>10</v>
@@ -9844,13 +9844,13 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B180">
         <v>10</v>
@@ -9897,13 +9897,13 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B181">
         <v>10</v>
@@ -9950,13 +9950,13 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B182">
         <v>10</v>
@@ -10003,13 +10003,13 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B183">
         <v>11</v>
@@ -10056,13 +10056,13 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -10109,13 +10109,13 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B185">
         <v>11</v>
@@ -10162,13 +10162,13 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B186">
         <v>11</v>
@@ -10215,13 +10215,13 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B187">
         <v>12</v>
@@ -10268,13 +10268,13 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B188">
         <v>12</v>
@@ -10321,13 +10321,13 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B189">
         <v>12</v>
@@ -10374,13 +10374,13 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B190">
         <v>12</v>
@@ -10427,13 +10427,13 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B191">
         <v>12</v>
@@ -10480,13 +10480,13 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B192">
         <v>12</v>
@@ -10533,13 +10533,13 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B193">
         <v>12</v>
@@ -10586,13 +10586,13 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B194">
         <v>12</v>
@@ -10639,13 +10639,13 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B195">
         <v>12</v>
@@ -10692,13 +10692,13 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B196">
         <v>12</v>
@@ -10745,13 +10745,13 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B197">
         <v>13</v>
@@ -10798,13 +10798,13 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B198">
         <v>13</v>
@@ -10851,13 +10851,13 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B199">
         <v>13</v>
@@ -10904,13 +10904,13 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B200">
         <v>13</v>
@@ -10957,13 +10957,13 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B201">
         <v>13</v>
@@ -11010,13 +11010,13 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B202">
         <v>13</v>
@@ -11063,13 +11063,13 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B203">
         <v>13</v>
@@ -11116,13 +11116,13 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B204">
         <v>13</v>
@@ -11169,13 +11169,13 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B205">
         <v>13</v>
@@ -11222,13 +11222,13 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B206">
         <v>13</v>
@@ -11275,13 +11275,13 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B207">
         <v>14</v>
@@ -11328,13 +11328,13 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B208">
         <v>14</v>
@@ -11381,13 +11381,13 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B209">
         <v>14</v>
@@ -11434,13 +11434,13 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B210">
         <v>14</v>
@@ -11487,13 +11487,13 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B211">
         <v>14</v>
@@ -11540,13 +11540,13 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B212">
         <v>14</v>
@@ -11593,13 +11593,13 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -11646,13 +11646,13 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B214">
         <v>14</v>
@@ -11699,13 +11699,13 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B215">
         <v>14</v>
@@ -11752,13 +11752,13 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B216">
         <v>14</v>
@@ -11805,13 +11805,13 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B217">
         <v>14</v>
@@ -11858,13 +11858,13 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B218">
         <v>14</v>
@@ -11911,13 +11911,13 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B219">
         <v>14</v>
@@ -11964,13 +11964,13 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B220">
         <v>14</v>
@@ -12017,13 +12017,13 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B221">
         <v>14</v>
@@ -12070,13 +12070,13 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B222">
         <v>14</v>
@@ -12123,13 +12123,13 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B223">
         <v>14</v>
@@ -12176,13 +12176,13 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B224">
         <v>14</v>
@@ -12229,13 +12229,13 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B225">
         <v>14</v>
@@ -12282,13 +12282,13 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B226">
         <v>14</v>
@@ -12335,13 +12335,13 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B227">
         <v>14</v>
@@ -12388,13 +12388,13 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B228">
         <v>15</v>
@@ -12441,13 +12441,13 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B229">
         <v>15</v>
@@ -12494,13 +12494,13 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B230">
         <v>15</v>
@@ -12547,13 +12547,13 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B231">
         <v>16</v>
@@ -12600,13 +12600,13 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B232">
         <v>16</v>
@@ -12653,13 +12653,13 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B233">
         <v>16</v>
@@ -12706,13 +12706,13 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B234">
         <v>16</v>
@@ -12759,13 +12759,13 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B235">
         <v>16</v>
@@ -12812,13 +12812,13 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B236">
         <v>16</v>
@@ -12865,13 +12865,13 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B237">
         <v>16</v>
@@ -12918,13 +12918,13 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B238">
         <v>16</v>
@@ -12971,13 +12971,13 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B239">
         <v>16</v>
@@ -13024,13 +13024,13 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B240">
         <v>16</v>
@@ -13077,13 +13077,13 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B241">
         <v>16</v>
@@ -13130,13 +13130,13 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B242">
         <v>16</v>
@@ -13183,13 +13183,13 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B243">
         <v>16</v>
@@ -13236,13 +13236,13 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B244">
         <v>16</v>
@@ -13289,13 +13289,13 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B245">
         <v>16</v>
@@ -13342,13 +13342,13 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B246">
         <v>16</v>
@@ -13395,13 +13395,13 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B247">
         <v>16</v>
@@ -13448,13 +13448,13 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B248">
         <v>16</v>
@@ -13501,13 +13501,13 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B249">
         <v>16</v>
@@ -13554,13 +13554,13 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B250">
         <v>16</v>
@@ -13607,13 +13607,13 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B251">
         <v>16</v>
@@ -13660,13 +13660,13 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B252">
         <v>16</v>
@@ -13713,13 +13713,13 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B253">
         <v>16</v>
@@ -13766,13 +13766,13 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B254">
         <v>16</v>
@@ -13819,13 +13819,13 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B255">
         <v>16</v>
@@ -13872,13 +13872,13 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B256">
         <v>16</v>
@@ -13925,13 +13925,13 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B257">
         <v>16</v>
@@ -13978,13 +13978,13 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B258">
         <v>16</v>
@@ -14031,13 +14031,13 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B259">
         <v>16</v>
@@ -14084,13 +14084,13 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B260">
         <v>16</v>
@@ -14137,13 +14137,13 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B261">
         <v>16</v>
@@ -14190,13 +14190,13 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B262">
         <v>16</v>
@@ -14243,13 +14243,13 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B263">
         <v>16</v>
@@ -14296,13 +14296,13 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B264">
         <v>16</v>
@@ -14349,13 +14349,13 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B265">
         <v>16</v>
@@ -14402,13 +14402,13 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B266">
         <v>16</v>
@@ -14455,13 +14455,13 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B267">
         <v>16</v>
@@ -14508,13 +14508,13 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B268">
         <v>16</v>
@@ -14561,13 +14561,13 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B269">
         <v>16</v>
@@ -14614,13 +14614,13 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B270">
         <v>16</v>
@@ -14667,13 +14667,13 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B271">
         <v>16</v>
@@ -14720,13 +14720,13 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B272">
         <v>16</v>
@@ -14773,13 +14773,13 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B273">
         <v>16</v>
@@ -14826,13 +14826,13 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B274">
         <v>16</v>
@@ -14879,13 +14879,13 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B275">
         <v>16</v>
@@ -14932,13 +14932,13 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B276">
         <v>16</v>
@@ -14985,13 +14985,13 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B277">
         <v>16</v>
@@ -15038,13 +15038,13 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B278">
         <v>16</v>
@@ -15091,13 +15091,13 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B279">
         <v>16</v>
@@ -15144,13 +15144,13 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B280">
         <v>16</v>
@@ -15197,13 +15197,13 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -15250,13 +15250,13 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -15303,13 +15303,13 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -15356,13 +15356,13 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B284">
         <v>4</v>
@@ -15409,13 +15409,13 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B285">
         <v>5</v>
@@ -15462,13 +15462,13 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -15515,13 +15515,13 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B287">
         <v>7</v>
@@ -15568,13 +15568,13 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B288">
         <v>8</v>
@@ -15621,13 +15621,13 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B289">
         <v>9</v>
@@ -15674,13 +15674,13 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B290">
         <v>10</v>
@@ -15727,13 +15727,13 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B291">
         <v>11</v>
@@ -15780,13 +15780,13 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B292">
         <v>12</v>
@@ -15833,13 +15833,13 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B293">
         <v>13</v>
@@ -15886,13 +15886,13 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B294">
         <v>14</v>
@@ -15939,13 +15939,13 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B295">
         <v>15</v>
@@ -15992,13 +15992,13 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1528947117</v>
+        <v>1529520284</v>
       </c>
       <c r="B296">
         <v>16</v>
@@ -16045,16 +16045,16 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Wed_Jun_13_23:31:57_EDT_2018</t>
+          <t>Wed_Jun_20_14:44:44_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1528947611</v>
+        <v>1529521748</v>
       </c>
       <c r="B297">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beverage </t>
+          <t xml:space="preserve"> Manufacturing </t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wed_Jun_13_23:40:11_EDT_2018</t>
+          <t xml:space="preserve"> Wed_Jun_20_15:09:08_EDT_2018</t>
         </is>
       </c>
     </row>

--- a/data/TCSDB/user_data.xlsx
+++ b/data/TCSDB/user_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K505"/>
+  <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -463,13 +463,13 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -516,13 +516,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -569,13 +569,13 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -622,13 +622,13 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -675,13 +675,13 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -728,13 +728,13 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -781,13 +781,13 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -834,13 +834,13 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -887,13 +887,13 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -940,13 +940,13 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -993,13 +993,13 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1046,13 +1046,13 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1099,13 +1099,13 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1205,13 +1205,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1258,13 +1258,13 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1311,13 +1311,13 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1364,13 +1364,13 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1417,13 +1417,13 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1629,13 +1629,13 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1682,13 +1682,13 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1735,13 +1735,13 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1788,13 +1788,13 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1894,13 +1894,13 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1947,13 +1947,13 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2000,13 +2000,13 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2053,13 +2053,13 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2159,13 +2159,13 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2265,13 +2265,13 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2318,13 +2318,13 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2371,13 +2371,13 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2477,13 +2477,13 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2583,13 +2583,13 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2636,13 +2636,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2742,13 +2742,13 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2795,13 +2795,13 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2848,13 +2848,13 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2901,13 +2901,13 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3007,13 +3007,13 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3060,13 +3060,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3113,13 +3113,13 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -3166,13 +3166,13 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3219,13 +3219,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3272,13 +3272,13 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -3325,13 +3325,13 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3378,13 +3378,13 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -3431,13 +3431,13 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3537,13 +3537,13 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3590,13 +3590,13 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3643,13 +3643,13 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -3696,13 +3696,13 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3749,13 +3749,13 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3802,13 +3802,13 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3855,13 +3855,13 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3961,13 +3961,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4014,13 +4014,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4120,13 +4120,13 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4173,13 +4173,13 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4279,13 +4279,13 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4332,13 +4332,13 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4385,13 +4385,13 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4438,13 +4438,13 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4491,13 +4491,13 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4544,13 +4544,13 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4650,13 +4650,13 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4703,13 +4703,13 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4756,13 +4756,13 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4809,13 +4809,13 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4862,13 +4862,13 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4915,13 +4915,13 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4968,13 +4968,13 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -5021,13 +5021,13 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -5074,13 +5074,13 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5127,13 +5127,13 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5180,13 +5180,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5233,13 +5233,13 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -5286,13 +5286,13 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -5339,13 +5339,13 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -5392,13 +5392,13 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -5445,13 +5445,13 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -5498,13 +5498,13 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -5551,13 +5551,13 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -5604,13 +5604,13 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -5657,13 +5657,13 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -5710,13 +5710,13 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -5869,13 +5869,13 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -5922,13 +5922,13 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -5975,13 +5975,13 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -6028,13 +6028,13 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -6081,13 +6081,13 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -6134,13 +6134,13 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -6187,13 +6187,13 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -6240,13 +6240,13 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -6346,13 +6346,13 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -6399,13 +6399,13 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -6452,13 +6452,13 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -6558,13 +6558,13 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -6664,13 +6664,13 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -6717,13 +6717,13 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -6770,13 +6770,13 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -6823,13 +6823,13 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -6876,13 +6876,13 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -6929,13 +6929,13 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -6982,13 +6982,13 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -7035,13 +7035,13 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -7088,13 +7088,13 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -7141,13 +7141,13 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -7194,13 +7194,13 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -7247,13 +7247,13 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -7300,13 +7300,13 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -7353,13 +7353,13 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -7459,13 +7459,13 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -7512,13 +7512,13 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -7565,13 +7565,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -7618,13 +7618,13 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -7671,13 +7671,13 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -7724,13 +7724,13 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -7777,13 +7777,13 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -7830,13 +7830,13 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -7883,13 +7883,13 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -7936,13 +7936,13 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -7989,13 +7989,13 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -8042,13 +8042,13 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -8095,13 +8095,13 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -8201,13 +8201,13 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -8254,13 +8254,13 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -8307,13 +8307,13 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -8360,13 +8360,13 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -8413,13 +8413,13 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -8466,13 +8466,13 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B154">
         <v>8</v>
@@ -8519,13 +8519,13 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -8572,13 +8572,13 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -8625,13 +8625,13 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -8678,13 +8678,13 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B158">
         <v>8</v>
@@ -8731,13 +8731,13 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -8784,13 +8784,13 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -8837,13 +8837,13 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -8890,13 +8890,13 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B162">
         <v>8</v>
@@ -8943,13 +8943,13 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -8996,13 +8996,13 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -9049,13 +9049,13 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -9102,13 +9102,13 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -9155,13 +9155,13 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -9208,13 +9208,13 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -9261,13 +9261,13 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B169">
         <v>10</v>
@@ -9314,13 +9314,13 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B170">
         <v>10</v>
@@ -9367,13 +9367,13 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B171">
         <v>10</v>
@@ -9420,13 +9420,13 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B172">
         <v>10</v>
@@ -9473,13 +9473,13 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B173">
         <v>10</v>
@@ -9526,13 +9526,13 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B174">
         <v>10</v>
@@ -9579,13 +9579,13 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B175">
         <v>10</v>
@@ -9632,13 +9632,13 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B176">
         <v>10</v>
@@ -9685,13 +9685,13 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B177">
         <v>10</v>
@@ -9738,13 +9738,13 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B178">
         <v>10</v>
@@ -9791,13 +9791,13 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B179">
         <v>10</v>
@@ -9844,13 +9844,13 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B180">
         <v>10</v>
@@ -9897,13 +9897,13 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B181">
         <v>10</v>
@@ -9950,13 +9950,13 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B182">
         <v>10</v>
@@ -10003,13 +10003,13 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B183">
         <v>11</v>
@@ -10056,13 +10056,13 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -10109,13 +10109,13 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B185">
         <v>11</v>
@@ -10162,13 +10162,13 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B186">
         <v>11</v>
@@ -10215,13 +10215,13 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B187">
         <v>12</v>
@@ -10268,13 +10268,13 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B188">
         <v>12</v>
@@ -10321,13 +10321,13 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B189">
         <v>12</v>
@@ -10374,13 +10374,13 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B190">
         <v>12</v>
@@ -10427,13 +10427,13 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B191">
         <v>12</v>
@@ -10480,13 +10480,13 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B192">
         <v>12</v>
@@ -10533,13 +10533,13 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B193">
         <v>12</v>
@@ -10586,13 +10586,13 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B194">
         <v>12</v>
@@ -10639,13 +10639,13 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B195">
         <v>12</v>
@@ -10692,13 +10692,13 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B196">
         <v>12</v>
@@ -10745,13 +10745,13 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B197">
         <v>13</v>
@@ -10798,13 +10798,13 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B198">
         <v>13</v>
@@ -10851,13 +10851,13 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B199">
         <v>13</v>
@@ -10904,13 +10904,13 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B200">
         <v>13</v>
@@ -10957,13 +10957,13 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B201">
         <v>13</v>
@@ -11010,13 +11010,13 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B202">
         <v>13</v>
@@ -11063,13 +11063,13 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B203">
         <v>13</v>
@@ -11116,13 +11116,13 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B204">
         <v>13</v>
@@ -11169,13 +11169,13 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B205">
         <v>13</v>
@@ -11222,13 +11222,13 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B206">
         <v>13</v>
@@ -11275,13 +11275,13 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B207">
         <v>14</v>
@@ -11328,13 +11328,13 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B208">
         <v>14</v>
@@ -11381,13 +11381,13 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B209">
         <v>14</v>
@@ -11434,13 +11434,13 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B210">
         <v>14</v>
@@ -11487,13 +11487,13 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B211">
         <v>14</v>
@@ -11540,13 +11540,13 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B212">
         <v>14</v>
@@ -11593,13 +11593,13 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -11646,13 +11646,13 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B214">
         <v>14</v>
@@ -11699,13 +11699,13 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B215">
         <v>14</v>
@@ -11752,13 +11752,13 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B216">
         <v>14</v>
@@ -11805,13 +11805,13 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B217">
         <v>14</v>
@@ -11858,13 +11858,13 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B218">
         <v>14</v>
@@ -11911,13 +11911,13 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B219">
         <v>14</v>
@@ -11964,13 +11964,13 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B220">
         <v>14</v>
@@ -12017,13 +12017,13 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B221">
         <v>14</v>
@@ -12070,13 +12070,13 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B222">
         <v>14</v>
@@ -12123,13 +12123,13 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B223">
         <v>14</v>
@@ -12176,13 +12176,13 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B224">
         <v>14</v>
@@ -12229,13 +12229,13 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B225">
         <v>14</v>
@@ -12282,13 +12282,13 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B226">
         <v>14</v>
@@ -12335,13 +12335,13 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B227">
         <v>14</v>
@@ -12388,13 +12388,13 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B228">
         <v>15</v>
@@ -12441,13 +12441,13 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B229">
         <v>15</v>
@@ -12494,13 +12494,13 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B230">
         <v>15</v>
@@ -12547,13 +12547,13 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B231">
         <v>16</v>
@@ -12600,13 +12600,13 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B232">
         <v>16</v>
@@ -12653,13 +12653,13 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B233">
         <v>16</v>
@@ -12706,13 +12706,13 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B234">
         <v>16</v>
@@ -12759,13 +12759,13 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B235">
         <v>16</v>
@@ -12812,13 +12812,13 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B236">
         <v>16</v>
@@ -12865,13 +12865,13 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B237">
         <v>16</v>
@@ -12918,13 +12918,13 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B238">
         <v>16</v>
@@ -12971,13 +12971,13 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B239">
         <v>16</v>
@@ -13024,13 +13024,13 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B240">
         <v>16</v>
@@ -13077,13 +13077,13 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B241">
         <v>16</v>
@@ -13130,13 +13130,13 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B242">
         <v>16</v>
@@ -13183,13 +13183,13 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B243">
         <v>16</v>
@@ -13236,13 +13236,13 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B244">
         <v>16</v>
@@ -13289,13 +13289,13 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B245">
         <v>16</v>
@@ -13342,13 +13342,13 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B246">
         <v>16</v>
@@ -13395,13 +13395,13 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B247">
         <v>16</v>
@@ -13448,13 +13448,13 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B248">
         <v>16</v>
@@ -13501,13 +13501,13 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B249">
         <v>16</v>
@@ -13554,13 +13554,13 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B250">
         <v>16</v>
@@ -13607,13 +13607,13 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B251">
         <v>16</v>
@@ -13660,13 +13660,13 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B252">
         <v>16</v>
@@ -13713,13 +13713,13 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B253">
         <v>16</v>
@@ -13766,13 +13766,13 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B254">
         <v>16</v>
@@ -13819,13 +13819,13 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B255">
         <v>16</v>
@@ -13872,13 +13872,13 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B256">
         <v>16</v>
@@ -13925,13 +13925,13 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B257">
         <v>16</v>
@@ -13978,13 +13978,13 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B258">
         <v>16</v>
@@ -14031,13 +14031,13 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B259">
         <v>16</v>
@@ -14084,13 +14084,13 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B260">
         <v>16</v>
@@ -14137,13 +14137,13 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B261">
         <v>16</v>
@@ -14190,13 +14190,13 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B262">
         <v>16</v>
@@ -14243,13 +14243,13 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B263">
         <v>16</v>
@@ -14296,13 +14296,13 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B264">
         <v>16</v>
@@ -14349,13 +14349,13 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B265">
         <v>16</v>
@@ -14402,13 +14402,13 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B266">
         <v>16</v>
@@ -14455,13 +14455,13 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B267">
         <v>16</v>
@@ -14508,13 +14508,13 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B268">
         <v>16</v>
@@ -14561,13 +14561,13 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B269">
         <v>16</v>
@@ -14614,13 +14614,13 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B270">
         <v>16</v>
@@ -14667,13 +14667,13 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B271">
         <v>16</v>
@@ -14720,13 +14720,13 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B272">
         <v>16</v>
@@ -14773,13 +14773,13 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B273">
         <v>16</v>
@@ -14826,13 +14826,13 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B274">
         <v>16</v>
@@ -14879,13 +14879,13 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B275">
         <v>16</v>
@@ -14932,13 +14932,13 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B276">
         <v>16</v>
@@ -14985,13 +14985,13 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B277">
         <v>16</v>
@@ -15038,13 +15038,13 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B278">
         <v>16</v>
@@ -15091,13 +15091,13 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B279">
         <v>16</v>
@@ -15144,13 +15144,13 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B280">
         <v>16</v>
@@ -15197,13 +15197,13 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B281">
         <v>17</v>
@@ -15250,13 +15250,13 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B282">
         <v>17</v>
@@ -15303,13 +15303,13 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B283">
         <v>17</v>
@@ -15356,13 +15356,13 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B284">
         <v>17</v>
@@ -15409,13 +15409,13 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B285">
         <v>17</v>
@@ -15462,13 +15462,13 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B286">
         <v>17</v>
@@ -15515,13 +15515,13 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B287">
         <v>17</v>
@@ -15568,13 +15568,13 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B288">
         <v>17</v>
@@ -15621,13 +15621,13 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B289">
         <v>17</v>
@@ -15674,13 +15674,13 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B290">
         <v>17</v>
@@ -15727,13 +15727,13 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B291">
         <v>17</v>
@@ -15780,13 +15780,13 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B292">
         <v>17</v>
@@ -15833,13 +15833,13 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B293">
         <v>17</v>
@@ -15886,13 +15886,13 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B294">
         <v>17</v>
@@ -15939,13 +15939,13 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B295">
         <v>17</v>
@@ -15992,13 +15992,13 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B296">
         <v>17</v>
@@ -16045,13 +16045,13 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B297">
         <v>17</v>
@@ -16098,13 +16098,13 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B298">
         <v>17</v>
@@ -16151,13 +16151,13 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B299">
         <v>17</v>
@@ -16204,13 +16204,13 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B300">
         <v>17</v>
@@ -16257,13 +16257,13 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B301">
         <v>17</v>
@@ -16310,13 +16310,13 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B302">
         <v>17</v>
@@ -16363,13 +16363,13 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B303">
         <v>17</v>
@@ -16416,13 +16416,13 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B304">
         <v>17</v>
@@ -16469,13 +16469,13 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B305">
         <v>17</v>
@@ -16522,13 +16522,13 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B306">
         <v>17</v>
@@ -16575,13 +16575,13 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B307">
         <v>17</v>
@@ -16628,13 +16628,13 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B308">
         <v>17</v>
@@ -16681,13 +16681,13 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B309">
         <v>17</v>
@@ -16734,13 +16734,13 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B310">
         <v>17</v>
@@ -16787,13 +16787,13 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B311">
         <v>17</v>
@@ -16840,13 +16840,13 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B312">
         <v>17</v>
@@ -16893,13 +16893,13 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B313">
         <v>17</v>
@@ -16946,13 +16946,13 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B314">
         <v>17</v>
@@ -16999,13 +16999,13 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B315">
         <v>17</v>
@@ -17052,13 +17052,13 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B316">
         <v>17</v>
@@ -17105,13 +17105,13 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B317">
         <v>17</v>
@@ -17158,13 +17158,13 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B318">
         <v>17</v>
@@ -17211,13 +17211,13 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B319">
         <v>17</v>
@@ -17264,13 +17264,13 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B320">
         <v>17</v>
@@ -17317,13 +17317,13 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B321">
         <v>17</v>
@@ -17370,13 +17370,13 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B322">
         <v>17</v>
@@ -17423,13 +17423,13 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B323">
         <v>17</v>
@@ -17476,13 +17476,13 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B324">
         <v>17</v>
@@ -17529,13 +17529,13 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B325">
         <v>17</v>
@@ -17582,13 +17582,13 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B326">
         <v>17</v>
@@ -17635,13 +17635,13 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B327">
         <v>17</v>
@@ -17688,13 +17688,13 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B328">
         <v>17</v>
@@ -17741,13 +17741,13 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B329">
         <v>17</v>
@@ -17794,13 +17794,13 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B330">
         <v>17</v>
@@ -17847,13 +17847,13 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B331">
         <v>17</v>
@@ -17900,13 +17900,13 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B332">
         <v>17</v>
@@ -17953,13 +17953,13 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B333">
         <v>17</v>
@@ -18006,13 +18006,13 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B334">
         <v>17</v>
@@ -18059,13 +18059,13 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B335">
         <v>17</v>
@@ -18112,13 +18112,13 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B336">
         <v>17</v>
@@ -18165,13 +18165,13 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B337">
         <v>17</v>
@@ -18218,13 +18218,13 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B338">
         <v>17</v>
@@ -18271,13 +18271,13 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B339">
         <v>17</v>
@@ -18324,13 +18324,13 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B340">
         <v>17</v>
@@ -18377,13 +18377,13 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B341">
         <v>17</v>
@@ -18430,13 +18430,13 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B342">
         <v>17</v>
@@ -18483,13 +18483,13 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B343">
         <v>17</v>
@@ -18536,13 +18536,13 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B344">
         <v>17</v>
@@ -18589,13 +18589,13 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B345">
         <v>17</v>
@@ -18642,13 +18642,13 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B346">
         <v>17</v>
@@ -18695,13 +18695,13 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B347">
         <v>17</v>
@@ -18748,13 +18748,13 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B348">
         <v>17</v>
@@ -18801,13 +18801,13 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B349">
         <v>17</v>
@@ -18854,13 +18854,13 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B350">
         <v>17</v>
@@ -18907,13 +18907,13 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B351">
         <v>17</v>
@@ -18960,13 +18960,13 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B352">
         <v>17</v>
@@ -19013,13 +19013,13 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B353">
         <v>17</v>
@@ -19066,13 +19066,13 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B354">
         <v>17</v>
@@ -19119,13 +19119,13 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B355">
         <v>17</v>
@@ -19172,13 +19172,13 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B356">
         <v>17</v>
@@ -19225,13 +19225,13 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B357">
         <v>17</v>
@@ -19278,13 +19278,13 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B358">
         <v>17</v>
@@ -19331,13 +19331,13 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B359">
         <v>17</v>
@@ -19384,13 +19384,13 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B360">
         <v>17</v>
@@ -19437,13 +19437,13 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B361">
         <v>17</v>
@@ -19490,13 +19490,13 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B362">
         <v>17</v>
@@ -19543,13 +19543,13 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B363">
         <v>17</v>
@@ -19596,13 +19596,13 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B364">
         <v>17</v>
@@ -19649,13 +19649,13 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B365">
         <v>17</v>
@@ -19702,13 +19702,13 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B366">
         <v>17</v>
@@ -19755,13 +19755,13 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B367">
         <v>17</v>
@@ -19808,13 +19808,13 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B368">
         <v>17</v>
@@ -19861,13 +19861,13 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B369">
         <v>17</v>
@@ -19914,13 +19914,13 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B370">
         <v>17</v>
@@ -19967,13 +19967,13 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B371">
         <v>17</v>
@@ -20020,13 +20020,13 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B372">
         <v>17</v>
@@ -20073,13 +20073,13 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B373">
         <v>17</v>
@@ -20126,13 +20126,13 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B374">
         <v>17</v>
@@ -20179,13 +20179,13 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B375">
         <v>17</v>
@@ -20232,13 +20232,13 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B376">
         <v>17</v>
@@ -20285,13 +20285,13 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B377">
         <v>17</v>
@@ -20338,13 +20338,13 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B378">
         <v>17</v>
@@ -20391,13 +20391,13 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B379">
         <v>17</v>
@@ -20444,13 +20444,13 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B380">
         <v>17</v>
@@ -20497,13 +20497,13 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B381">
         <v>17</v>
@@ -20550,13 +20550,13 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B382">
         <v>17</v>
@@ -20603,13 +20603,13 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B383">
         <v>17</v>
@@ -20656,13 +20656,13 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B384">
         <v>17</v>
@@ -20709,13 +20709,13 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B385">
         <v>17</v>
@@ -20762,13 +20762,13 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B386">
         <v>17</v>
@@ -20815,13 +20815,13 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B387">
         <v>17</v>
@@ -20868,13 +20868,13 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B388">
         <v>17</v>
@@ -20921,13 +20921,13 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B389">
         <v>17</v>
@@ -20974,13 +20974,13 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B390">
         <v>17</v>
@@ -21027,13 +21027,13 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B391">
         <v>17</v>
@@ -21080,13 +21080,13 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B392">
         <v>17</v>
@@ -21133,13 +21133,13 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B393">
         <v>17</v>
@@ -21186,13 +21186,13 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B394">
         <v>17</v>
@@ -21239,13 +21239,13 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B395">
         <v>17</v>
@@ -21292,13 +21292,13 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B396">
         <v>17</v>
@@ -21345,13 +21345,13 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B397">
         <v>17</v>
@@ -21398,13 +21398,13 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B398">
         <v>17</v>
@@ -21451,13 +21451,13 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B399">
         <v>17</v>
@@ -21504,13 +21504,13 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B400">
         <v>17</v>
@@ -21557,13 +21557,13 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B401">
         <v>17</v>
@@ -21610,13 +21610,13 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B402">
         <v>17</v>
@@ -21663,13 +21663,13 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B403">
         <v>17</v>
@@ -21716,13 +21716,13 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B404">
         <v>17</v>
@@ -21769,13 +21769,13 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B405">
         <v>17</v>
@@ -21822,13 +21822,13 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B406">
         <v>17</v>
@@ -21875,13 +21875,13 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B407">
         <v>17</v>
@@ -21928,13 +21928,13 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B408">
         <v>17</v>
@@ -21981,13 +21981,13 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B409">
         <v>17</v>
@@ -22034,13 +22034,13 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B410">
         <v>17</v>
@@ -22087,13 +22087,13 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B411">
         <v>17</v>
@@ -22140,13 +22140,13 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B412">
         <v>18</v>
@@ -22193,13 +22193,13 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B413">
         <v>18</v>
@@ -22246,13 +22246,13 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B414">
         <v>18</v>
@@ -22299,13 +22299,13 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B415">
         <v>18</v>
@@ -22352,13 +22352,13 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B416">
         <v>18</v>
@@ -22405,13 +22405,13 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B417">
         <v>18</v>
@@ -22458,13 +22458,13 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B418">
         <v>18</v>
@@ -22511,13 +22511,13 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B419">
         <v>18</v>
@@ -22564,13 +22564,13 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B420">
         <v>18</v>
@@ -22617,13 +22617,13 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B421">
         <v>18</v>
@@ -22670,13 +22670,13 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B422">
         <v>18</v>
@@ -22723,13 +22723,13 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B423">
         <v>18</v>
@@ -22776,13 +22776,13 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B424">
         <v>18</v>
@@ -22829,13 +22829,13 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B425">
         <v>18</v>
@@ -22882,13 +22882,13 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B426">
         <v>19</v>
@@ -22935,13 +22935,13 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B427">
         <v>19</v>
@@ -22988,13 +22988,13 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B428">
         <v>19</v>
@@ -23041,13 +23041,13 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B429">
         <v>19</v>
@@ -23094,13 +23094,13 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B430">
         <v>19</v>
@@ -23147,13 +23147,13 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B431">
         <v>19</v>
@@ -23200,13 +23200,13 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B432">
         <v>19</v>
@@ -23253,13 +23253,13 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B433">
         <v>19</v>
@@ -23306,13 +23306,13 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B434">
         <v>19</v>
@@ -23359,13 +23359,13 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B435">
         <v>19</v>
@@ -23412,13 +23412,13 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B436">
         <v>19</v>
@@ -23465,13 +23465,13 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B437">
         <v>19</v>
@@ -23518,13 +23518,13 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B438">
         <v>19</v>
@@ -23571,13 +23571,13 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B439">
         <v>19</v>
@@ -23624,13 +23624,13 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B440">
         <v>19</v>
@@ -23677,13 +23677,13 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B441">
         <v>19</v>
@@ -23730,13 +23730,13 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B442">
         <v>19</v>
@@ -23783,13 +23783,13 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B443">
         <v>19</v>
@@ -23836,13 +23836,13 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B444">
         <v>19</v>
@@ -23889,13 +23889,13 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B445">
         <v>19</v>
@@ -23942,13 +23942,13 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B446">
         <v>19</v>
@@ -23995,13 +23995,13 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B447">
         <v>19</v>
@@ -24048,13 +24048,13 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B448">
         <v>19</v>
@@ -24101,13 +24101,13 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B449">
         <v>19</v>
@@ -24154,13 +24154,13 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B450">
         <v>19</v>
@@ -24207,13 +24207,13 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B451">
         <v>19</v>
@@ -24260,13 +24260,13 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B452">
         <v>19</v>
@@ -24313,13 +24313,13 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B453">
         <v>19</v>
@@ -24366,13 +24366,13 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B454">
         <v>19</v>
@@ -24419,13 +24419,13 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B455">
         <v>19</v>
@@ -24472,13 +24472,13 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B456">
         <v>19</v>
@@ -24525,13 +24525,13 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B457">
         <v>19</v>
@@ -24578,13 +24578,13 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B458">
         <v>19</v>
@@ -24631,13 +24631,13 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B459">
         <v>19</v>
@@ -24684,13 +24684,13 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B460">
         <v>19</v>
@@ -24737,13 +24737,13 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B461">
         <v>19</v>
@@ -24790,13 +24790,13 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B462">
         <v>19</v>
@@ -24843,13 +24843,13 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B463">
         <v>19</v>
@@ -24896,13 +24896,13 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B464">
         <v>19</v>
@@ -24949,13 +24949,13 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B465">
         <v>19</v>
@@ -25002,13 +25002,13 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B466">
         <v>19</v>
@@ -25055,13 +25055,13 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B467">
         <v>19</v>
@@ -25108,13 +25108,13 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B468">
         <v>19</v>
@@ -25161,13 +25161,13 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B469">
         <v>19</v>
@@ -25214,13 +25214,13 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B470">
         <v>19</v>
@@ -25267,13 +25267,13 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B471">
         <v>19</v>
@@ -25320,13 +25320,13 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B472">
         <v>19</v>
@@ -25373,13 +25373,13 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B473">
         <v>19</v>
@@ -25426,13 +25426,13 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B474">
         <v>19</v>
@@ -25479,13 +25479,13 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B475">
         <v>19</v>
@@ -25532,13 +25532,13 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B476">
         <v>19</v>
@@ -25585,13 +25585,13 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B477">
         <v>19</v>
@@ -25638,13 +25638,13 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B478">
         <v>19</v>
@@ -25691,13 +25691,13 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B479">
         <v>19</v>
@@ -25744,13 +25744,13 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B480">
         <v>19</v>
@@ -25797,13 +25797,13 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B481">
         <v>19</v>
@@ -25850,13 +25850,13 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B482">
         <v>19</v>
@@ -25903,13 +25903,13 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B483">
         <v>19</v>
@@ -25956,13 +25956,13 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B484">
         <v>19</v>
@@ -26009,13 +26009,13 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B485">
         <v>19</v>
@@ -26062,652 +26062,652 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>San_Francisco_CA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Phoenix_AZ</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Denver_CO</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B489">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Austin_TX</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B490">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Dallas_TX</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B491">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Orlando_FL</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B492">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Richfield_OH</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B493">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>El_Paso_TX</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B494">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Woodcliff_Lake_NJ</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B495">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Mission_Viejo_CA</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B496">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Cambridge_MA</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B497">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>All locations</t>
+          <t>Waltham_MA</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Clean Room Manufacturing, R&amp;D</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B498">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -26751,16 +26751,16 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B499">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -26804,16 +26804,16 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B500">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -26857,16 +26857,16 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B501">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -26910,16 +26910,16 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B502">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -26963,16 +26963,16 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B503">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -27016,16 +27016,16 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504">
-        <v>1530368769</v>
+        <v>1530898127</v>
       </c>
       <c r="B504">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -27069,60 +27069,802 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Sat_Jun_30_10:26:09_EDT_2018</t>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505">
-        <v>1530369941</v>
+        <v>1530898127</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506">
+        <v>1530898127</v>
+      </c>
+      <c r="B506">
+        <v>9</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507">
+        <v>1530898127</v>
+      </c>
+      <c r="B507">
+        <v>10</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508">
+        <v>1530898127</v>
+      </c>
+      <c r="B508">
+        <v>11</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509">
+        <v>1530898127</v>
+      </c>
+      <c r="B509">
+        <v>12</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510">
+        <v>1530898127</v>
+      </c>
+      <c r="B510">
+        <v>13</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511">
+        <v>1530898127</v>
+      </c>
+      <c r="B511">
+        <v>14</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512">
+        <v>1530898127</v>
+      </c>
+      <c r="B512">
+        <v>15</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513">
+        <v>1530898127</v>
+      </c>
+      <c r="B513">
+        <v>16</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514">
+        <v>1530898127</v>
+      </c>
+      <c r="B514">
+        <v>17</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515">
+        <v>1530898127</v>
+      </c>
+      <c r="B515">
+        <v>18</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516">
+        <v>1530898127</v>
+      </c>
+      <c r="B516">
+        <v>19</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517">
+        <v>1530898127</v>
+      </c>
+      <c r="B517">
+        <v>20</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518">
+        <v>1530898127</v>
+      </c>
+      <c r="B518">
+        <v>21</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>All locations</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>Fri_Jul__6_13:28:47_EDT_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519">
+        <v>1530899018</v>
+      </c>
+      <c r="B519">
+        <v>6</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
           <t xml:space="preserve"> All locations </t>
         </is>
       </c>
-      <c r="D505" t="inlineStr">
+      <c r="D519" t="inlineStr">
         <is>
           <t xml:space="preserve"> Manufacturing </t>
         </is>
       </c>
-      <c r="E505" t="inlineStr">
+      <c r="E519" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="F505" t="inlineStr">
+      <c r="F519" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="G505" t="inlineStr">
+      <c r="G519" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
+      <c r="H519" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="I505" t="inlineStr">
+      <c r="I519" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="J505" t="inlineStr">
+      <c r="J519" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sat_Jun_30_10:45:41_EDT_2018</t>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fri_Jul__6_13:43:38_EDT_2018</t>
         </is>
       </c>
     </row>
